--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5559.399544527805</v>
+        <v>6048.689957399959</v>
       </c>
       <c r="AB2" t="n">
-        <v>7606.615720221462</v>
+        <v>8276.084449082733</v>
       </c>
       <c r="AC2" t="n">
-        <v>6880.650991835452</v>
+        <v>7486.226564819443</v>
       </c>
       <c r="AD2" t="n">
-        <v>5559399.544527805</v>
+        <v>6048689.957399959</v>
       </c>
       <c r="AE2" t="n">
-        <v>7606615.720221462</v>
+        <v>8276084.449082732</v>
       </c>
       <c r="AF2" t="n">
         <v>1.601240811104211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>99</v>
+        <v>98.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6880650.991835453</v>
+        <v>7486226.564819442</v>
       </c>
     </row>
     <row r="3">
@@ -6658,28 +6658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2707.483507011824</v>
+        <v>3020.647856825409</v>
       </c>
       <c r="AB3" t="n">
-        <v>3704.498380036061</v>
+        <v>4132.983659287074</v>
       </c>
       <c r="AC3" t="n">
-        <v>3350.94625394141</v>
+        <v>3738.537499523558</v>
       </c>
       <c r="AD3" t="n">
-        <v>2707483.507011824</v>
+        <v>3020647.856825409</v>
       </c>
       <c r="AE3" t="n">
-        <v>3704498.380036061</v>
+        <v>4132983.659287075</v>
       </c>
       <c r="AF3" t="n">
         <v>2.54771347361477e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>62</v>
+        <v>61.60807291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3350946.25394141</v>
+        <v>3738537.499523558</v>
       </c>
     </row>
     <row r="4">
@@ -6764,28 +6764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2217.849444786346</v>
+        <v>2491.859709518538</v>
       </c>
       <c r="AB4" t="n">
-        <v>3034.559454968829</v>
+        <v>3409.472387655155</v>
       </c>
       <c r="AC4" t="n">
-        <v>2744.945359617435</v>
+        <v>3084.077128201768</v>
       </c>
       <c r="AD4" t="n">
-        <v>2217849.444786346</v>
+        <v>2491859.709518538</v>
       </c>
       <c r="AE4" t="n">
-        <v>3034559.45496883</v>
+        <v>3409472.387655155</v>
       </c>
       <c r="AF4" t="n">
         <v>2.914152201840967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.86067708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2744945.359617435</v>
+        <v>3084077.128201768</v>
       </c>
     </row>
     <row r="5">
@@ -6870,28 +6870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2015.377944600091</v>
+        <v>2269.743846983885</v>
       </c>
       <c r="AB5" t="n">
-        <v>2757.529016001653</v>
+        <v>3105.563665474953</v>
       </c>
       <c r="AC5" t="n">
-        <v>2494.354316930736</v>
+        <v>2809.173027927886</v>
       </c>
       <c r="AD5" t="n">
-        <v>2015377.944600092</v>
+        <v>2269743.846983885</v>
       </c>
       <c r="AE5" t="n">
-        <v>2757529.016001653</v>
+        <v>3105563.665474953</v>
       </c>
       <c r="AF5" t="n">
         <v>3.113523799369299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.41015625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2494354.316930736</v>
+        <v>2809173.027927886</v>
       </c>
     </row>
     <row r="6">
@@ -6976,28 +6976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1901.792686610607</v>
+        <v>2146.471552950534</v>
       </c>
       <c r="AB6" t="n">
-        <v>2602.116654992517</v>
+        <v>2936.897074388553</v>
       </c>
       <c r="AC6" t="n">
-        <v>2353.774293533693</v>
+        <v>2656.603739569841</v>
       </c>
       <c r="AD6" t="n">
-        <v>1901792.686610606</v>
+        <v>2146471.552950534</v>
       </c>
       <c r="AE6" t="n">
-        <v>2602116.654992517</v>
+        <v>2936897.074388553</v>
       </c>
       <c r="AF6" t="n">
         <v>3.235509323370914e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.50911458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2353774.293533693</v>
+        <v>2656603.739569841</v>
       </c>
     </row>
     <row r="7">
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1829.972292430801</v>
+        <v>2064.795317692676</v>
       </c>
       <c r="AB7" t="n">
-        <v>2503.848823183537</v>
+        <v>2825.144046007561</v>
       </c>
       <c r="AC7" t="n">
-        <v>2264.885005672794</v>
+        <v>2555.516263371171</v>
       </c>
       <c r="AD7" t="n">
-        <v>1829972.292430801</v>
+        <v>2064795.317692676</v>
       </c>
       <c r="AE7" t="n">
-        <v>2503848.823183537</v>
+        <v>2825144.046007561</v>
       </c>
       <c r="AF7" t="n">
         <v>3.32085097454991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>48</v>
+        <v>47.25911458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2264885.005672794</v>
+        <v>2555516.26337117</v>
       </c>
     </row>
     <row r="8">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1776.229810597013</v>
+        <v>2011.018670440108</v>
       </c>
       <c r="AB8" t="n">
-        <v>2430.315988587583</v>
+        <v>2751.56446477836</v>
       </c>
       <c r="AC8" t="n">
-        <v>2198.370041606697</v>
+        <v>2488.959014104893</v>
       </c>
       <c r="AD8" t="n">
-        <v>1776229.810597013</v>
+        <v>2011018.670440108</v>
       </c>
       <c r="AE8" t="n">
-        <v>2430315.988587583</v>
+        <v>2751564.46477836</v>
       </c>
       <c r="AF8" t="n">
         <v>3.382325892772069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2198370.041606697</v>
+        <v>2488959.014104893</v>
       </c>
     </row>
     <row r="9">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1735.049262733862</v>
+        <v>1969.905442384661</v>
       </c>
       <c r="AB9" t="n">
-        <v>2373.970946243669</v>
+        <v>2695.311532365287</v>
       </c>
       <c r="AC9" t="n">
-        <v>2147.402491023322</v>
+        <v>2438.074782609838</v>
       </c>
       <c r="AD9" t="n">
-        <v>1735049.262733862</v>
+        <v>1969905.442384661</v>
       </c>
       <c r="AE9" t="n">
-        <v>2373970.946243669</v>
+        <v>2695311.532365287</v>
       </c>
       <c r="AF9" t="n">
         <v>3.425237796472241e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.8203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>2147402.491023322</v>
+        <v>2438074.782609838</v>
       </c>
     </row>
     <row r="10">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1706.588802222301</v>
+        <v>1931.623306213827</v>
       </c>
       <c r="AB10" t="n">
-        <v>2335.030088584848</v>
+        <v>2642.932224767701</v>
       </c>
       <c r="AC10" t="n">
-        <v>2112.178094165622</v>
+        <v>2390.694482614545</v>
       </c>
       <c r="AD10" t="n">
-        <v>1706588.802222301</v>
+        <v>1931623.306213827</v>
       </c>
       <c r="AE10" t="n">
-        <v>2335030.088584848</v>
+        <v>2642932.2247677</v>
       </c>
       <c r="AF10" t="n">
         <v>3.465015684733638e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.29947916666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2112178.094165622</v>
+        <v>2390694.482614545</v>
       </c>
     </row>
     <row r="11">
@@ -7506,28 +7506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1675.298921854476</v>
+        <v>1910.120936086494</v>
       </c>
       <c r="AB11" t="n">
-        <v>2292.217893853493</v>
+        <v>2613.511733341862</v>
       </c>
       <c r="AC11" t="n">
-        <v>2073.451835212134</v>
+        <v>2364.08184159847</v>
       </c>
       <c r="AD11" t="n">
-        <v>1675298.921854476</v>
+        <v>1910120.936086494</v>
       </c>
       <c r="AE11" t="n">
-        <v>2292217.893853493</v>
+        <v>2613511.733341862</v>
       </c>
       <c r="AF11" t="n">
         <v>3.494186136125328e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2073451.835212134</v>
+        <v>2364081.84159847</v>
       </c>
     </row>
     <row r="12">
@@ -7612,28 +7612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1656.9449912397</v>
+        <v>1882.046815038932</v>
       </c>
       <c r="AB12" t="n">
-        <v>2267.105236268085</v>
+        <v>2575.099482381779</v>
       </c>
       <c r="AC12" t="n">
-        <v>2050.735894420842</v>
+        <v>2329.335601958084</v>
       </c>
       <c r="AD12" t="n">
-        <v>1656944.9912397</v>
+        <v>1882046.815038932</v>
       </c>
       <c r="AE12" t="n">
-        <v>2267105.236268085</v>
+        <v>2575099.482381779</v>
       </c>
       <c r="AF12" t="n">
         <v>3.516847478528791e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.62890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>2050735.894420842</v>
+        <v>2329335.601958084</v>
       </c>
     </row>
     <row r="13">
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1639.754241007565</v>
+        <v>1864.754579580311</v>
       </c>
       <c r="AB13" t="n">
-        <v>2243.584093398103</v>
+        <v>2551.439482947707</v>
       </c>
       <c r="AC13" t="n">
-        <v>2029.459576414239</v>
+        <v>2307.933679662982</v>
       </c>
       <c r="AD13" t="n">
-        <v>1639754.241007565</v>
+        <v>1864754.579580311</v>
       </c>
       <c r="AE13" t="n">
-        <v>2243584.093398103</v>
+        <v>2551439.482947707</v>
       </c>
       <c r="AF13" t="n">
         <v>3.537580196046852e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.36848958333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>2029459.576414239</v>
+        <v>2307933.679662982</v>
       </c>
     </row>
     <row r="14">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1622.257763801954</v>
+        <v>1837.537911941913</v>
       </c>
       <c r="AB14" t="n">
-        <v>2219.644641395288</v>
+        <v>2514.200437570217</v>
       </c>
       <c r="AC14" t="n">
-        <v>2007.804872111341</v>
+        <v>2274.248676510992</v>
       </c>
       <c r="AD14" t="n">
-        <v>1622257.763801954</v>
+        <v>1837537.911941913</v>
       </c>
       <c r="AE14" t="n">
-        <v>2219644.641395288</v>
+        <v>2514200.437570217</v>
       </c>
       <c r="AF14" t="n">
         <v>3.559036147896938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>45</v>
+        <v>44.1015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>2007804.872111341</v>
+        <v>2274248.676510992</v>
       </c>
     </row>
     <row r="15">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1602.077507656752</v>
+        <v>1827.145166037203</v>
       </c>
       <c r="AB15" t="n">
-        <v>2192.033124647356</v>
+        <v>2499.980624127802</v>
       </c>
       <c r="AC15" t="n">
-        <v>1982.828559768825</v>
+        <v>2261.385982105888</v>
       </c>
       <c r="AD15" t="n">
-        <v>1602077.507656752</v>
+        <v>1827145.166037203</v>
       </c>
       <c r="AE15" t="n">
-        <v>2192033.124647356</v>
+        <v>2499980.624127802</v>
       </c>
       <c r="AF15" t="n">
         <v>3.568679272323944e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.984375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1982828.559768825</v>
+        <v>2261385.982105887</v>
       </c>
     </row>
     <row r="16">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1586.900989847321</v>
+        <v>1811.968648227772</v>
       </c>
       <c r="AB16" t="n">
-        <v>2171.267943439781</v>
+        <v>2479.215442920226</v>
       </c>
       <c r="AC16" t="n">
-        <v>1964.045178311585</v>
+        <v>2242.602600648648</v>
       </c>
       <c r="AD16" t="n">
-        <v>1586900.989847321</v>
+        <v>1811968.648227772</v>
       </c>
       <c r="AE16" t="n">
-        <v>2171267.943439781</v>
+        <v>2479215.442920227</v>
       </c>
       <c r="AF16" t="n">
         <v>3.585795818181878e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.76953125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1964045.178311585</v>
+        <v>2242602.600648648</v>
       </c>
     </row>
     <row r="17">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1577.074983543253</v>
+        <v>1802.142641923703</v>
       </c>
       <c r="AB17" t="n">
-        <v>2157.823568121751</v>
+        <v>2465.771067602196</v>
       </c>
       <c r="AC17" t="n">
-        <v>1951.883915304609</v>
+        <v>2230.441337641671</v>
       </c>
       <c r="AD17" t="n">
-        <v>1577074.983543253</v>
+        <v>1802142.641923703</v>
       </c>
       <c r="AE17" t="n">
-        <v>2157823.568121751</v>
+        <v>2465771.067602196</v>
       </c>
       <c r="AF17" t="n">
         <v>3.593510317723481e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.67838541666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>1951883.915304609</v>
+        <v>2230441.337641671</v>
       </c>
     </row>
     <row r="18">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1564.594216666562</v>
+        <v>1779.941684614225</v>
       </c>
       <c r="AB18" t="n">
-        <v>2140.746832268487</v>
+        <v>2435.394738374257</v>
       </c>
       <c r="AC18" t="n">
-        <v>1936.436959153832</v>
+        <v>2202.964082641801</v>
       </c>
       <c r="AD18" t="n">
-        <v>1564594.216666562</v>
+        <v>1779941.684614225</v>
       </c>
       <c r="AE18" t="n">
-        <v>2140746.832268487</v>
+        <v>2435394.738374257</v>
       </c>
       <c r="AF18" t="n">
         <v>3.606287457589264e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.52213541666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1936436.959153832</v>
+        <v>2202964.082641801</v>
       </c>
     </row>
     <row r="19">
@@ -8354,28 +8354,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1554.851357275929</v>
+        <v>1770.097339997107</v>
       </c>
       <c r="AB19" t="n">
-        <v>2127.416222225603</v>
+        <v>2421.925271767284</v>
       </c>
       <c r="AC19" t="n">
-        <v>1924.378603823811</v>
+        <v>2190.780123023281</v>
       </c>
       <c r="AD19" t="n">
-        <v>1554851.357275929</v>
+        <v>1770097.339997107</v>
       </c>
       <c r="AE19" t="n">
-        <v>2127416.222225603</v>
+        <v>2421925.271767284</v>
       </c>
       <c r="AF19" t="n">
         <v>3.614243035241543e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.42447916666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1924378.603823811</v>
+        <v>2190780.123023281</v>
       </c>
     </row>
     <row r="20">
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1544.097170402052</v>
+        <v>1759.34315312323</v>
       </c>
       <c r="AB20" t="n">
-        <v>2112.701869303523</v>
+        <v>2407.210918845205</v>
       </c>
       <c r="AC20" t="n">
-        <v>1911.068568092891</v>
+        <v>2177.470087292361</v>
       </c>
       <c r="AD20" t="n">
-        <v>1544097.170402052</v>
+        <v>1759343.15312323</v>
       </c>
       <c r="AE20" t="n">
-        <v>2112701.869303524</v>
+        <v>2407210.918845205</v>
       </c>
       <c r="AF20" t="n">
         <v>3.622921847225848e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.3203125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1911068.568092891</v>
+        <v>2177470.087292361</v>
       </c>
     </row>
     <row r="21">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1534.127695652452</v>
+        <v>1749.37367837363</v>
       </c>
       <c r="AB21" t="n">
-        <v>2099.061194128936</v>
+        <v>2393.570243670617</v>
       </c>
       <c r="AC21" t="n">
-        <v>1898.729739812158</v>
+        <v>2165.131259011629</v>
       </c>
       <c r="AD21" t="n">
-        <v>1534127.695652452</v>
+        <v>1749373.67837363</v>
       </c>
       <c r="AE21" t="n">
-        <v>2099061.194128936</v>
+        <v>2393570.243670617</v>
       </c>
       <c r="AF21" t="n">
         <v>3.630877424878127e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1898729.739812159</v>
+        <v>2165131.259011629</v>
       </c>
     </row>
     <row r="22">
@@ -8672,28 +8672,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1526.393564826046</v>
+        <v>1741.639547547225</v>
       </c>
       <c r="AB22" t="n">
-        <v>2088.479015126477</v>
+        <v>2382.988064668159</v>
       </c>
       <c r="AC22" t="n">
-        <v>1889.157509121513</v>
+        <v>2155.559028320983</v>
       </c>
       <c r="AD22" t="n">
-        <v>1526393.564826046</v>
+        <v>1741639.547547225</v>
       </c>
       <c r="AE22" t="n">
-        <v>2088479.015126477</v>
+        <v>2382988.064668159</v>
       </c>
       <c r="AF22" t="n">
         <v>3.635216830870279e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>44</v>
+        <v>43.17708333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1889157.509121513</v>
+        <v>2155559.028320983</v>
       </c>
     </row>
     <row r="23">
@@ -8778,28 +8778,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1514.779590094035</v>
+        <v>1730.025572815214</v>
       </c>
       <c r="AB23" t="n">
-        <v>2072.588262525735</v>
+        <v>2367.097312067417</v>
       </c>
       <c r="AC23" t="n">
-        <v>1874.783347646175</v>
+        <v>2141.184866845645</v>
       </c>
       <c r="AD23" t="n">
-        <v>1514779.590094035</v>
+        <v>1730025.572815214</v>
       </c>
       <c r="AE23" t="n">
-        <v>2072588.262525736</v>
+        <v>2367097.312067417</v>
       </c>
       <c r="AF23" t="n">
         <v>3.644136720965259e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>44</v>
+        <v>43.07291666666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1874783.347646175</v>
+        <v>2141184.866845645</v>
       </c>
     </row>
     <row r="24">
@@ -8884,28 +8884,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1507.595216524815</v>
+        <v>1722.841199245993</v>
       </c>
       <c r="AB24" t="n">
-        <v>2062.758285656137</v>
+        <v>2357.267335197817</v>
       </c>
       <c r="AC24" t="n">
-        <v>1865.891529972551</v>
+        <v>2132.293049172021</v>
       </c>
       <c r="AD24" t="n">
-        <v>1507595.216524815</v>
+        <v>1722841.199245994</v>
       </c>
       <c r="AE24" t="n">
-        <v>2062758.285656136</v>
+        <v>2357267.335197817</v>
       </c>
       <c r="AF24" t="n">
         <v>3.647511814514711e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>44</v>
+        <v>43.03385416666666</v>
       </c>
       <c r="AH24" t="n">
-        <v>1865891.529972551</v>
+        <v>2132293.049172021</v>
       </c>
     </row>
     <row r="25">
@@ -8990,28 +8990,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1491.20334418566</v>
+        <v>1716.23683714733</v>
       </c>
       <c r="AB25" t="n">
-        <v>2040.330202763335</v>
+        <v>2348.230955610533</v>
       </c>
       <c r="AC25" t="n">
-        <v>1845.603951833026</v>
+        <v>2124.119088969909</v>
       </c>
       <c r="AD25" t="n">
-        <v>1491203.34418566</v>
+        <v>1716236.83714733</v>
       </c>
       <c r="AE25" t="n">
-        <v>2040330.202763335</v>
+        <v>2348230.955610533</v>
       </c>
       <c r="AF25" t="n">
         <v>3.651369064285513e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>43</v>
+        <v>42.98177083333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>1845603.951833026</v>
+        <v>2124119.088969909</v>
       </c>
     </row>
     <row r="26">
@@ -9096,28 +9096,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1487.145708463272</v>
+        <v>1712.179201424942</v>
       </c>
       <c r="AB26" t="n">
-        <v>2034.778366557709</v>
+        <v>2342.679119404907</v>
       </c>
       <c r="AC26" t="n">
-        <v>1840.581975082815</v>
+        <v>2119.097112219697</v>
       </c>
       <c r="AD26" t="n">
-        <v>1487145.708463272</v>
+        <v>1712179.201424942</v>
       </c>
       <c r="AE26" t="n">
-        <v>2034778.366557709</v>
+        <v>2342679.119404907</v>
       </c>
       <c r="AF26" t="n">
         <v>3.655226314056315e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH26" t="n">
-        <v>1840581.975082814</v>
+        <v>2119097.112219697</v>
       </c>
     </row>
     <row r="27">
@@ -9202,28 +9202,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1491.238940036621</v>
+        <v>1716.272432998291</v>
       </c>
       <c r="AB27" t="n">
-        <v>2040.378906576998</v>
+        <v>2348.279659424196</v>
       </c>
       <c r="AC27" t="n">
-        <v>1845.64800742307</v>
+        <v>2124.163144559952</v>
       </c>
       <c r="AD27" t="n">
-        <v>1491238.940036621</v>
+        <v>1716272.432998291</v>
       </c>
       <c r="AE27" t="n">
-        <v>2040378.906576998</v>
+        <v>2348279.659424196</v>
       </c>
       <c r="AF27" t="n">
         <v>3.65546739216699e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>43</v>
+        <v>42.93619791666666</v>
       </c>
       <c r="AH27" t="n">
-        <v>1845648.00742307</v>
+        <v>2124163.144559952</v>
       </c>
     </row>
   </sheetData>
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3947.396816151785</v>
+        <v>4363.557933350092</v>
       </c>
       <c r="AB2" t="n">
-        <v>5401.002470716041</v>
+        <v>5970.412470999523</v>
       </c>
       <c r="AC2" t="n">
-        <v>4885.538375265275</v>
+        <v>5400.604684293635</v>
       </c>
       <c r="AD2" t="n">
-        <v>3947396.816151785</v>
+        <v>4363557.933350092</v>
       </c>
       <c r="AE2" t="n">
-        <v>5401002.470716041</v>
+        <v>5970412.470999523</v>
       </c>
       <c r="AF2" t="n">
         <v>2.080463108912923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.54557291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4885538.375265275</v>
+        <v>5400604.684293635</v>
       </c>
     </row>
     <row r="3">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2238.214845358511</v>
+        <v>2518.849285485162</v>
       </c>
       <c r="AB3" t="n">
-        <v>3062.42429448973</v>
+        <v>3446.400716188748</v>
       </c>
       <c r="AC3" t="n">
-        <v>2770.150817963007</v>
+        <v>3117.481068889347</v>
       </c>
       <c r="AD3" t="n">
-        <v>2238214.845358511</v>
+        <v>2518849.285485161</v>
       </c>
       <c r="AE3" t="n">
-        <v>3062424.29448973</v>
+        <v>3446400.716188747</v>
       </c>
       <c r="AF3" t="n">
         <v>3.011883831313269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.01822916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2770150.817963007</v>
+        <v>3117481.068889347</v>
       </c>
     </row>
     <row r="4">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1898.923923487402</v>
+        <v>2150.516716163728</v>
       </c>
       <c r="AB4" t="n">
-        <v>2598.191486726453</v>
+        <v>2942.431845156851</v>
       </c>
       <c r="AC4" t="n">
-        <v>2350.223737817934</v>
+        <v>2661.610279584113</v>
       </c>
       <c r="AD4" t="n">
-        <v>1898923.923487402</v>
+        <v>2150516.716163728</v>
       </c>
       <c r="AE4" t="n">
-        <v>2598191.486726453</v>
+        <v>2942431.845156851</v>
       </c>
       <c r="AF4" t="n">
         <v>3.360078493892838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.10677083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2350223.737817934</v>
+        <v>2661610.279584113</v>
       </c>
     </row>
     <row r="5">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1747.406072211631</v>
+        <v>1989.284150319068</v>
       </c>
       <c r="AB5" t="n">
-        <v>2390.878078115112</v>
+        <v>2721.826335489398</v>
       </c>
       <c r="AC5" t="n">
-        <v>2162.696029958263</v>
+        <v>2462.059050137544</v>
       </c>
       <c r="AD5" t="n">
-        <v>1747406.072211631</v>
+        <v>1989284.150319068</v>
       </c>
       <c r="AE5" t="n">
-        <v>2390878.078115112</v>
+        <v>2721826.335489398</v>
       </c>
       <c r="AF5" t="n">
         <v>3.544463394758836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.45052083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2162696.029958263</v>
+        <v>2462059.050137544</v>
       </c>
     </row>
     <row r="6">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1656.276096835096</v>
+        <v>1898.187329331456</v>
       </c>
       <c r="AB6" t="n">
-        <v>2266.190025434167</v>
+        <v>2597.183646106047</v>
       </c>
       <c r="AC6" t="n">
-        <v>2049.908030024406</v>
+        <v>2349.312084091826</v>
       </c>
       <c r="AD6" t="n">
-        <v>1656276.096835096</v>
+        <v>1898187.329331456</v>
       </c>
       <c r="AE6" t="n">
-        <v>2266190.025434167</v>
+        <v>2597183.646106047</v>
       </c>
       <c r="AF6" t="n">
         <v>3.660000714614784e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.92057291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2049908.030024406</v>
+        <v>2349312.084091826</v>
       </c>
     </row>
     <row r="7">
@@ -10029,28 +10029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1599.803262765352</v>
+        <v>1832.068111530385</v>
       </c>
       <c r="AB7" t="n">
-        <v>2188.921402454339</v>
+        <v>2506.716415336602</v>
       </c>
       <c r="AC7" t="n">
-        <v>1980.01381597458</v>
+        <v>2267.478918855461</v>
       </c>
       <c r="AD7" t="n">
-        <v>1599803.262765352</v>
+        <v>1832068.111530385</v>
       </c>
       <c r="AE7" t="n">
-        <v>2188921.402454339</v>
+        <v>2506716.415336601</v>
       </c>
       <c r="AF7" t="n">
         <v>3.735706675342311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.97005208333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1980013.81597458</v>
+        <v>2267478.918855461</v>
       </c>
     </row>
     <row r="8">
@@ -10135,28 +10135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1566.024816617888</v>
+        <v>1788.57596184389</v>
       </c>
       <c r="AB8" t="n">
-        <v>2142.704242235508</v>
+        <v>2447.208537397312</v>
       </c>
       <c r="AC8" t="n">
-        <v>1938.207556660842</v>
+        <v>2213.650389266866</v>
       </c>
       <c r="AD8" t="n">
-        <v>1566024.816617888</v>
+        <v>1788575.96184389</v>
       </c>
       <c r="AE8" t="n">
-        <v>2142704.242235508</v>
+        <v>2447208.537397312</v>
       </c>
       <c r="AF8" t="n">
         <v>3.790573713082122e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.30598958333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1938207.556660842</v>
+        <v>2213650.389266866</v>
       </c>
     </row>
     <row r="9">
@@ -10241,28 +10241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1528.236762395833</v>
+        <v>1750.855227429539</v>
       </c>
       <c r="AB9" t="n">
-        <v>2091.000959357597</v>
+        <v>2395.597364450243</v>
       </c>
       <c r="AC9" t="n">
-        <v>1891.438762534786</v>
+        <v>2166.964914229129</v>
       </c>
       <c r="AD9" t="n">
-        <v>1528236.762395833</v>
+        <v>1750855.227429539</v>
       </c>
       <c r="AE9" t="n">
-        <v>2091000.959357597</v>
+        <v>2395597.364450243</v>
       </c>
       <c r="AF9" t="n">
         <v>3.832515342892843e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.81119791666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1891438.762534786</v>
+        <v>2166964.914229129</v>
       </c>
     </row>
     <row r="10">
@@ -10347,28 +10347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1503.914415592365</v>
+        <v>1726.431395399586</v>
       </c>
       <c r="AB10" t="n">
-        <v>2057.722051434881</v>
+        <v>2362.179599963438</v>
       </c>
       <c r="AC10" t="n">
-        <v>1861.335946876974</v>
+        <v>2136.736494282818</v>
       </c>
       <c r="AD10" t="n">
-        <v>1503914.415592365</v>
+        <v>1726431.395399586</v>
       </c>
       <c r="AE10" t="n">
-        <v>2057722.051434882</v>
+        <v>2362179.599963438</v>
       </c>
       <c r="AF10" t="n">
         <v>3.8694450798331e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.38151041666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1861335.946876974</v>
+        <v>2136736.494282817</v>
       </c>
     </row>
     <row r="11">
@@ -10453,28 +10453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1483.287491379874</v>
+        <v>1696.192252874549</v>
       </c>
       <c r="AB11" t="n">
-        <v>2029.499383731679</v>
+        <v>2320.805071103867</v>
       </c>
       <c r="AC11" t="n">
-        <v>1835.806810968603</v>
+        <v>2099.310692388088</v>
       </c>
       <c r="AD11" t="n">
-        <v>1483287.491379874</v>
+        <v>1696192.252874549</v>
       </c>
       <c r="AE11" t="n">
-        <v>2029499.38373168</v>
+        <v>2320805.071103867</v>
       </c>
       <c r="AF11" t="n">
         <v>3.897933734044156e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.05598958333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1835806.810968603</v>
+        <v>2099310.692388088</v>
       </c>
     </row>
     <row r="12">
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1456.931652324064</v>
+        <v>1679.515951938989</v>
       </c>
       <c r="AB12" t="n">
-        <v>1993.438161997963</v>
+        <v>2297.987820457361</v>
       </c>
       <c r="AC12" t="n">
-        <v>1803.187221624909</v>
+        <v>2078.671088119072</v>
       </c>
       <c r="AD12" t="n">
-        <v>1456931.652324064</v>
+        <v>1679515.951938989</v>
       </c>
       <c r="AE12" t="n">
-        <v>1993438.161997963</v>
+        <v>2297987.820457361</v>
       </c>
       <c r="AF12" t="n">
         <v>3.91692617018486e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.84114583333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1803187.221624909</v>
+        <v>2078671.088119072</v>
       </c>
     </row>
     <row r="13">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1438.389085429462</v>
+        <v>1660.973385044387</v>
       </c>
       <c r="AB13" t="n">
-        <v>1968.067403932451</v>
+        <v>2272.617062391849</v>
       </c>
       <c r="AC13" t="n">
-        <v>1780.237813101087</v>
+        <v>2055.72167959525</v>
       </c>
       <c r="AD13" t="n">
-        <v>1438389.085429462</v>
+        <v>1660973.385044387</v>
       </c>
       <c r="AE13" t="n">
-        <v>1968067.403932451</v>
+        <v>2272617.062391849</v>
       </c>
       <c r="AF13" t="n">
         <v>3.939084012349015e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.60026041666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1780237.813101087</v>
+        <v>2055721.67959525</v>
       </c>
     </row>
     <row r="14">
@@ -10771,28 +10771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1425.342732367493</v>
+        <v>1638.213328443386</v>
       </c>
       <c r="AB14" t="n">
-        <v>1950.216808108589</v>
+        <v>2241.475748847528</v>
       </c>
       <c r="AC14" t="n">
-        <v>1764.090853089186</v>
+        <v>2027.552449308491</v>
       </c>
       <c r="AD14" t="n">
-        <v>1425342.732367493</v>
+        <v>1638213.328443386</v>
       </c>
       <c r="AE14" t="n">
-        <v>1950216.808108589</v>
+        <v>2241475.748847528</v>
       </c>
       <c r="AF14" t="n">
         <v>3.950954284936954e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.47005208333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1764090.853089186</v>
+        <v>2027552.449308491</v>
       </c>
     </row>
     <row r="15">
@@ -10877,28 +10877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1410.055983575901</v>
+        <v>1622.926579651794</v>
       </c>
       <c r="AB15" t="n">
-        <v>1929.300804008174</v>
+        <v>2220.559744747114</v>
       </c>
       <c r="AC15" t="n">
-        <v>1745.171043064318</v>
+        <v>2008.632639283624</v>
       </c>
       <c r="AD15" t="n">
-        <v>1410055.983575901</v>
+        <v>1622926.579651794</v>
       </c>
       <c r="AE15" t="n">
-        <v>1929300.804008174</v>
+        <v>2220559.744747113</v>
       </c>
       <c r="AF15" t="n">
         <v>3.96757266656007e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.28125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1745171.043064318</v>
+        <v>2008632.639283624</v>
       </c>
     </row>
     <row r="16">
@@ -10983,28 +10983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1395.680937998528</v>
+        <v>1608.551534074421</v>
       </c>
       <c r="AB16" t="n">
-        <v>1909.632232466959</v>
+        <v>2200.891173205899</v>
       </c>
       <c r="AC16" t="n">
-        <v>1727.379612385984</v>
+        <v>1990.841208605289</v>
       </c>
       <c r="AD16" t="n">
-        <v>1395680.937998528</v>
+        <v>1608551.534074421</v>
       </c>
       <c r="AE16" t="n">
-        <v>1909632.232466959</v>
+        <v>2200891.173205899</v>
       </c>
       <c r="AF16" t="n">
         <v>3.978915371477434e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.1640625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1727379.612385984</v>
+        <v>1990841.208605289</v>
       </c>
     </row>
     <row r="17">
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1383.835438441178</v>
+        <v>1596.706034517071</v>
       </c>
       <c r="AB17" t="n">
-        <v>1893.424697386034</v>
+        <v>2184.683638124974</v>
       </c>
       <c r="AC17" t="n">
-        <v>1712.718901705764</v>
+        <v>1976.18049792507</v>
       </c>
       <c r="AD17" t="n">
-        <v>1383835.438441178</v>
+        <v>1596706.034517071</v>
       </c>
       <c r="AE17" t="n">
-        <v>1893424.697386035</v>
+        <v>2184683.638124974</v>
       </c>
       <c r="AF17" t="n">
         <v>3.986301318865487e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.07942708333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1712718.901705764</v>
+        <v>1976180.49792507</v>
       </c>
     </row>
     <row r="18">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1374.70261327847</v>
+        <v>1587.573209354363</v>
       </c>
       <c r="AB18" t="n">
-        <v>1880.928763086608</v>
+        <v>2172.187703825547</v>
       </c>
       <c r="AC18" t="n">
-        <v>1701.41556183772</v>
+        <v>1964.877158057026</v>
       </c>
       <c r="AD18" t="n">
-        <v>1374702.61327847</v>
+        <v>1587573.209354363</v>
       </c>
       <c r="AE18" t="n">
-        <v>1880928.763086608</v>
+        <v>2172187.703825547</v>
       </c>
       <c r="AF18" t="n">
         <v>3.993687266253538e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.00130208333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>1701415.56183772</v>
+        <v>1964877.158057026</v>
       </c>
     </row>
     <row r="19">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1375.393999446964</v>
+        <v>1588.264595522857</v>
       </c>
       <c r="AB19" t="n">
-        <v>1881.874748144146</v>
+        <v>2173.133688883085</v>
       </c>
       <c r="AC19" t="n">
-        <v>1702.271263409066</v>
+        <v>1965.732859628371</v>
       </c>
       <c r="AD19" t="n">
-        <v>1375393.999446964</v>
+        <v>1588264.595522857</v>
       </c>
       <c r="AE19" t="n">
-        <v>1881874.748144146</v>
+        <v>2173133.688883085</v>
       </c>
       <c r="AF19" t="n">
         <v>3.99342348241825e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.00130208333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1702271.263409066</v>
+        <v>1965732.859628371</v>
       </c>
     </row>
     <row r="20">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1379.657087710401</v>
+        <v>1592.527683786294</v>
       </c>
       <c r="AB20" t="n">
-        <v>1887.707693580361</v>
+        <v>2178.9666343193</v>
       </c>
       <c r="AC20" t="n">
-        <v>1707.547520719439</v>
+        <v>1971.009116938744</v>
       </c>
       <c r="AD20" t="n">
-        <v>1379657.087710401</v>
+        <v>1592527.683786294</v>
       </c>
       <c r="AE20" t="n">
-        <v>1887707.693580361</v>
+        <v>2178966.6343193</v>
       </c>
       <c r="AF20" t="n">
         <v>3.99342348241825e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.0078125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1707547.520719439</v>
+        <v>1971009.116938744</v>
       </c>
     </row>
   </sheetData>
@@ -11704,28 +11704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1738.350507005847</v>
+        <v>2018.946628360081</v>
       </c>
       <c r="AB2" t="n">
-        <v>2378.487854297218</v>
+        <v>2762.411846561286</v>
       </c>
       <c r="AC2" t="n">
-        <v>2151.48831171176</v>
+        <v>2498.771136994854</v>
       </c>
       <c r="AD2" t="n">
-        <v>1738350.507005848</v>
+        <v>2018946.628360081</v>
       </c>
       <c r="AE2" t="n">
-        <v>2378487.854297218</v>
+        <v>2762411.846561287</v>
       </c>
       <c r="AF2" t="n">
         <v>4.150550020336625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.75390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2151488.31171176</v>
+        <v>2498771.136994854</v>
       </c>
     </row>
     <row r="3">
@@ -11810,28 +11810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1309.670910634319</v>
+        <v>1534.135152580051</v>
       </c>
       <c r="AB3" t="n">
-        <v>1791.949518532644</v>
+        <v>2099.071397026255</v>
       </c>
       <c r="AC3" t="n">
-        <v>1620.928371500833</v>
+        <v>1898.738968959277</v>
       </c>
       <c r="AD3" t="n">
-        <v>1309670.910634319</v>
+        <v>1534135.152580051</v>
       </c>
       <c r="AE3" t="n">
-        <v>1791949.518532644</v>
+        <v>2099071.397026254</v>
       </c>
       <c r="AF3" t="n">
         <v>4.977125447965092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.1640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1620928.371500833</v>
+        <v>1898738.968959277</v>
       </c>
     </row>
     <row r="4">
@@ -11916,28 +11916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.146917083604</v>
+        <v>1409.61014799948</v>
       </c>
       <c r="AB4" t="n">
-        <v>1621.57029694568</v>
+        <v>1928.690792103636</v>
       </c>
       <c r="AC4" t="n">
-        <v>1466.80990369339</v>
+        <v>1744.619249839792</v>
       </c>
       <c r="AD4" t="n">
-        <v>1185146.917083604</v>
+        <v>1409610.147999479</v>
       </c>
       <c r="AE4" t="n">
-        <v>1621570.29694568</v>
+        <v>1928690.792103636</v>
       </c>
       <c r="AF4" t="n">
         <v>5.260996118210772e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.55989583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1466809.90369339</v>
+        <v>1744619.249839792</v>
       </c>
     </row>
     <row r="5">
@@ -12022,28 +12022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1121.075789783099</v>
+        <v>1336.116219151543</v>
       </c>
       <c r="AB5" t="n">
-        <v>1533.905353954485</v>
+        <v>1828.133156330581</v>
       </c>
       <c r="AC5" t="n">
-        <v>1387.511579822754</v>
+        <v>1653.658693691389</v>
       </c>
       <c r="AD5" t="n">
-        <v>1121075.789783099</v>
+        <v>1336116.219151543</v>
       </c>
       <c r="AE5" t="n">
-        <v>1533905.353954485</v>
+        <v>1828133.156330581</v>
       </c>
       <c r="AF5" t="n">
         <v>5.406429211267896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.3359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1387511.579822754</v>
+        <v>1653658.693691389</v>
       </c>
     </row>
     <row r="6">
@@ -12128,28 +12128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1076.846687719742</v>
+        <v>1291.954436895891</v>
       </c>
       <c r="AB6" t="n">
-        <v>1473.389145261129</v>
+        <v>1767.709057568067</v>
       </c>
       <c r="AC6" t="n">
-        <v>1332.77095315206</v>
+        <v>1599.001386109014</v>
       </c>
       <c r="AD6" t="n">
-        <v>1076846.687719742</v>
+        <v>1291954.436895891</v>
       </c>
       <c r="AE6" t="n">
-        <v>1473389.145261129</v>
+        <v>1767709.057568067</v>
       </c>
       <c r="AF6" t="n">
         <v>5.485220811050743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.69791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1332770.95315206</v>
+        <v>1599001.386109015</v>
       </c>
     </row>
     <row r="7">
@@ -12234,28 +12234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1079.908818012833</v>
+        <v>1295.016567188982</v>
       </c>
       <c r="AB7" t="n">
-        <v>1477.57888701979</v>
+        <v>1771.898799326728</v>
       </c>
       <c r="AC7" t="n">
-        <v>1336.560831837614</v>
+        <v>1602.791264794568</v>
       </c>
       <c r="AD7" t="n">
-        <v>1079908.818012833</v>
+        <v>1295016.567188981</v>
       </c>
       <c r="AE7" t="n">
-        <v>1477578.88701979</v>
+        <v>1771898.799326728</v>
       </c>
       <c r="AF7" t="n">
         <v>5.487798106370743e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.67838541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1336560.831837614</v>
+        <v>1602791.264794568</v>
       </c>
     </row>
   </sheetData>
@@ -12531,28 +12531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338.878296646328</v>
+        <v>2661.183184758268</v>
       </c>
       <c r="AB2" t="n">
-        <v>3200.156469499774</v>
+        <v>3641.148236502685</v>
       </c>
       <c r="AC2" t="n">
-        <v>2894.738027498409</v>
+        <v>3293.642159194379</v>
       </c>
       <c r="AD2" t="n">
-        <v>2338878.296646328</v>
+        <v>2661183.184758268</v>
       </c>
       <c r="AE2" t="n">
-        <v>3200156.469499774</v>
+        <v>3641148.236502686</v>
       </c>
       <c r="AF2" t="n">
         <v>3.194218914775412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.98697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2894738.027498409</v>
+        <v>3293642.159194379</v>
       </c>
     </row>
     <row r="3">
@@ -12637,28 +12637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1605.308546341441</v>
+        <v>1861.235443554029</v>
       </c>
       <c r="AB3" t="n">
-        <v>2196.453974319114</v>
+        <v>2546.624445783224</v>
       </c>
       <c r="AC3" t="n">
-        <v>1986.827489752612</v>
+        <v>2303.578182887531</v>
       </c>
       <c r="AD3" t="n">
-        <v>1605308.546341441</v>
+        <v>1861235.443554029</v>
       </c>
       <c r="AE3" t="n">
-        <v>2196453.974319114</v>
+        <v>2546624.445783224</v>
       </c>
       <c r="AF3" t="n">
         <v>4.070413122980924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.99609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1986827.489752612</v>
+        <v>2303578.18288753</v>
       </c>
     </row>
     <row r="4">
@@ -12743,28 +12743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1432.204760687679</v>
+        <v>1659.684958544687</v>
       </c>
       <c r="AB4" t="n">
-        <v>1959.605737987592</v>
+        <v>2270.854180413593</v>
       </c>
       <c r="AC4" t="n">
-        <v>1772.583716677982</v>
+        <v>2054.127044598779</v>
       </c>
       <c r="AD4" t="n">
-        <v>1432204.760687679</v>
+        <v>1659684.958544687</v>
       </c>
       <c r="AE4" t="n">
-        <v>1959605.737987591</v>
+        <v>2270854.180413594</v>
       </c>
       <c r="AF4" t="n">
         <v>4.382884128818407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.36328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1772583.716677982</v>
+        <v>2054127.044598779</v>
       </c>
     </row>
     <row r="5">
@@ -12849,28 +12849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1341.834998193971</v>
+        <v>1569.348350439903</v>
       </c>
       <c r="AB5" t="n">
-        <v>1835.957842111156</v>
+        <v>2147.251647834752</v>
       </c>
       <c r="AC5" t="n">
-        <v>1660.736602443081</v>
+        <v>1942.320964252018</v>
       </c>
       <c r="AD5" t="n">
-        <v>1341834.998193971</v>
+        <v>1569348.350439903</v>
       </c>
       <c r="AE5" t="n">
-        <v>1835957.842111156</v>
+        <v>2147251.647834752</v>
       </c>
       <c r="AF5" t="n">
         <v>4.545496591039954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.67057291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1660736.602443081</v>
+        <v>1942320.964252018</v>
       </c>
     </row>
     <row r="6">
@@ -12955,28 +12955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1287.844423865674</v>
+        <v>1505.909371401908</v>
       </c>
       <c r="AB6" t="n">
-        <v>1762.085556419147</v>
+        <v>2060.451637984737</v>
       </c>
       <c r="AC6" t="n">
-        <v>1593.914584017114</v>
+        <v>1863.80502551751</v>
       </c>
       <c r="AD6" t="n">
-        <v>1287844.423865674</v>
+        <v>1505909.371401908</v>
       </c>
       <c r="AE6" t="n">
-        <v>1762085.556419147</v>
+        <v>2060451.637984737</v>
       </c>
       <c r="AF6" t="n">
         <v>4.63955674075634e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.74609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1593914.584017114</v>
+        <v>1863805.02551751</v>
       </c>
     </row>
     <row r="7">
@@ -13061,28 +13061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1252.102171688628</v>
+        <v>1460.651394707459</v>
       </c>
       <c r="AB7" t="n">
-        <v>1713.181430153633</v>
+        <v>1998.527677630375</v>
       </c>
       <c r="AC7" t="n">
-        <v>1549.677798925008</v>
+        <v>1807.791001028544</v>
       </c>
       <c r="AD7" t="n">
-        <v>1252102.171688627</v>
+        <v>1460651.394707459</v>
       </c>
       <c r="AE7" t="n">
-        <v>1713181.430153633</v>
+        <v>1998527.677630375</v>
       </c>
       <c r="AF7" t="n">
         <v>4.711616380878045e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.05598958333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1549677.798925008</v>
+        <v>1807791.001028544</v>
       </c>
     </row>
     <row r="8">
@@ -13167,28 +13167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1215.389696181768</v>
+        <v>1433.420478299221</v>
       </c>
       <c r="AB8" t="n">
-        <v>1662.949801525037</v>
+        <v>1961.269136457379</v>
       </c>
       <c r="AC8" t="n">
-        <v>1504.240206432192</v>
+        <v>1774.088362732408</v>
       </c>
       <c r="AD8" t="n">
-        <v>1215389.696181768</v>
+        <v>1433420.478299221</v>
       </c>
       <c r="AE8" t="n">
-        <v>1662949.801525037</v>
+        <v>1961269.136457379</v>
       </c>
       <c r="AF8" t="n">
         <v>4.756892791927966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.63932291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1504240.206432192</v>
+        <v>1774088.362732408</v>
       </c>
     </row>
     <row r="9">
@@ -13273,28 +13273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1188.672640908208</v>
+        <v>1397.187698508258</v>
       </c>
       <c r="AB9" t="n">
-        <v>1626.39434782646</v>
+        <v>1911.693848669956</v>
       </c>
       <c r="AC9" t="n">
-        <v>1471.173553928706</v>
+        <v>1729.244470832062</v>
       </c>
       <c r="AD9" t="n">
-        <v>1188672.640908208</v>
+        <v>1397187.698508258</v>
       </c>
       <c r="AE9" t="n">
-        <v>1626394.34782646</v>
+        <v>1911693.848669956</v>
       </c>
       <c r="AF9" t="n">
         <v>4.795792243675081e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.28125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1471173.553928706</v>
+        <v>1729244.470832062</v>
       </c>
     </row>
     <row r="10">
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1185.806889000243</v>
+        <v>1394.321946600293</v>
       </c>
       <c r="AB10" t="n">
-        <v>1622.47329963793</v>
+        <v>1907.772800481426</v>
       </c>
       <c r="AC10" t="n">
-        <v>1467.626725076064</v>
+        <v>1725.69764197942</v>
       </c>
       <c r="AD10" t="n">
-        <v>1185806.889000243</v>
+        <v>1394321.946600293</v>
       </c>
       <c r="AE10" t="n">
-        <v>1622473.29963793</v>
+        <v>1907772.800481426</v>
       </c>
       <c r="AF10" t="n">
         <v>4.798980723326484e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.25520833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1467626.725076064</v>
+        <v>1725697.64197942</v>
       </c>
     </row>
   </sheetData>
@@ -13676,28 +13676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1373.538141513837</v>
+        <v>1623.220222449136</v>
       </c>
       <c r="AB2" t="n">
-        <v>1879.335481445369</v>
+        <v>2220.961519777042</v>
       </c>
       <c r="AC2" t="n">
-        <v>1699.974340760137</v>
+        <v>2008.996069468591</v>
       </c>
       <c r="AD2" t="n">
-        <v>1373538.141513838</v>
+        <v>1623220.222449136</v>
       </c>
       <c r="AE2" t="n">
-        <v>1879335.481445369</v>
+        <v>2220961.519777042</v>
       </c>
       <c r="AF2" t="n">
         <v>5.165895407177818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1699974.340760137</v>
+        <v>2008996.069468591</v>
       </c>
     </row>
     <row r="3">
@@ -13782,28 +13782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1091.997825822617</v>
+        <v>1313.892011765603</v>
       </c>
       <c r="AB3" t="n">
-        <v>1494.119600834522</v>
+        <v>1797.725015322306</v>
       </c>
       <c r="AC3" t="n">
-        <v>1351.522923140904</v>
+        <v>1626.15266298285</v>
       </c>
       <c r="AD3" t="n">
-        <v>1091997.825822617</v>
+        <v>1313892.011765603</v>
       </c>
       <c r="AE3" t="n">
-        <v>1494119.600834522</v>
+        <v>1797725.015322306</v>
       </c>
       <c r="AF3" t="n">
         <v>5.934664984915383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.26302083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1351522.923140904</v>
+        <v>1626152.66298285</v>
       </c>
     </row>
     <row r="4">
@@ -13888,28 +13888,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000.78259499403</v>
+        <v>1213.425537745839</v>
       </c>
       <c r="AB4" t="n">
-        <v>1369.314897882874</v>
+        <v>1660.262353300445</v>
       </c>
       <c r="AC4" t="n">
-        <v>1238.629405874461</v>
+        <v>1501.809244494297</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000782.59499403</v>
+        <v>1213425.537745839</v>
       </c>
       <c r="AE4" t="n">
-        <v>1369314.897882873</v>
+        <v>1660262.353300445</v>
       </c>
       <c r="AF4" t="n">
         <v>6.190640373662887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.34895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1238629.405874461</v>
+        <v>1501809.244494298</v>
       </c>
     </row>
     <row r="5">
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1003.66286940653</v>
+        <v>1216.305812158339</v>
       </c>
       <c r="AB5" t="n">
-        <v>1373.255816402795</v>
+        <v>1664.203271820366</v>
       </c>
       <c r="AC5" t="n">
-        <v>1242.194208661955</v>
+        <v>1505.374047281792</v>
       </c>
       <c r="AD5" t="n">
-        <v>1003662.86940653</v>
+        <v>1216305.812158339</v>
       </c>
       <c r="AE5" t="n">
-        <v>1373255.816402795</v>
+        <v>1664203.271820366</v>
       </c>
       <c r="AF5" t="n">
         <v>6.194014019643086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.32291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1242194.208661955</v>
+        <v>1505374.047281792</v>
       </c>
     </row>
   </sheetData>
@@ -14291,28 +14291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4298.928311462578</v>
+        <v>4725.985523565689</v>
       </c>
       <c r="AB2" t="n">
-        <v>5881.983371075333</v>
+        <v>6466.301889109352</v>
       </c>
       <c r="AC2" t="n">
-        <v>5320.615133555192</v>
+        <v>5849.167112324213</v>
       </c>
       <c r="AD2" t="n">
-        <v>4298928.311462577</v>
+        <v>4725985.523565689</v>
       </c>
       <c r="AE2" t="n">
-        <v>5881983.371075333</v>
+        <v>6466301.889109353</v>
       </c>
       <c r="AF2" t="n">
         <v>1.947832737161456e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5320615.133555193</v>
+        <v>5849167.112324213</v>
       </c>
     </row>
     <row r="3">
@@ -14397,28 +14397,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2350.446118564842</v>
+        <v>2641.578328884379</v>
       </c>
       <c r="AB3" t="n">
-        <v>3215.98407378497</v>
+        <v>3614.324007790829</v>
       </c>
       <c r="AC3" t="n">
-        <v>2909.055067444807</v>
+        <v>3269.377997222741</v>
       </c>
       <c r="AD3" t="n">
-        <v>2350446.118564841</v>
+        <v>2641578.328884379</v>
       </c>
       <c r="AE3" t="n">
-        <v>3215984.07378497</v>
+        <v>3614324.00779083</v>
       </c>
       <c r="AF3" t="n">
         <v>2.88326608813869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2909055.067444807</v>
+        <v>3269377.997222741</v>
       </c>
     </row>
     <row r="4">
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1969.453508752045</v>
+        <v>2231.526252782809</v>
       </c>
       <c r="AB4" t="n">
-        <v>2694.693176831236</v>
+        <v>3053.272667047775</v>
       </c>
       <c r="AC4" t="n">
-        <v>2437.51544206009</v>
+        <v>2761.872608999723</v>
       </c>
       <c r="AD4" t="n">
-        <v>1969453.508752045</v>
+        <v>2231526.252782809</v>
       </c>
       <c r="AE4" t="n">
-        <v>2694693.176831236</v>
+        <v>3053272.667047775</v>
       </c>
       <c r="AF4" t="n">
         <v>3.239781000385104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.72526041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2437515.44206009</v>
+        <v>2761872.608999723</v>
       </c>
     </row>
     <row r="5">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1809.012417141282</v>
+        <v>2061.342067054436</v>
       </c>
       <c r="AB5" t="n">
-        <v>2475.170597127981</v>
+        <v>2820.419156137655</v>
       </c>
       <c r="AC5" t="n">
-        <v>2238.943789261838</v>
+        <v>2551.242310359024</v>
       </c>
       <c r="AD5" t="n">
-        <v>1809012.417141282</v>
+        <v>2061342.067054436</v>
       </c>
       <c r="AE5" t="n">
-        <v>2475170.597127981</v>
+        <v>2820419.156137655</v>
       </c>
       <c r="AF5" t="n">
         <v>3.424859860966455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.93229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2238943.789261837</v>
+        <v>2551242.310359024</v>
       </c>
     </row>
     <row r="6">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1722.523117840202</v>
+        <v>1955.435921385559</v>
       </c>
       <c r="AB6" t="n">
-        <v>2356.832122185651</v>
+        <v>2675.513695384101</v>
       </c>
       <c r="AC6" t="n">
-        <v>2131.899372278911</v>
+        <v>2420.166423403698</v>
       </c>
       <c r="AD6" t="n">
-        <v>1722523.117840202</v>
+        <v>1955435.921385559</v>
       </c>
       <c r="AE6" t="n">
-        <v>2356832.122185651</v>
+        <v>2675513.695384101</v>
       </c>
       <c r="AF6" t="n">
         <v>3.541724676966362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.31770833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2131899.372278911</v>
+        <v>2420166.423403698</v>
       </c>
     </row>
     <row r="7">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1662.603691695891</v>
+        <v>1895.482329822468</v>
       </c>
       <c r="AB7" t="n">
-        <v>2274.84771987649</v>
+        <v>2593.482546441692</v>
       </c>
       <c r="AC7" t="n">
-        <v>2057.739446260305</v>
+        <v>2345.964212184912</v>
       </c>
       <c r="AD7" t="n">
-        <v>1662603.691695892</v>
+        <v>1895482.329822468</v>
       </c>
       <c r="AE7" t="n">
-        <v>2274847.719876491</v>
+        <v>2593482.546441692</v>
       </c>
       <c r="AF7" t="n">
         <v>3.620492592596256e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.2890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2057739.446260305</v>
+        <v>2345964.212184912</v>
       </c>
     </row>
     <row r="8">
@@ -14927,28 +14927,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1615.688140276323</v>
+        <v>1848.634098210604</v>
       </c>
       <c r="AB8" t="n">
-        <v>2210.655792656185</v>
+        <v>2529.382729152229</v>
       </c>
       <c r="AC8" t="n">
-        <v>1999.67390647997</v>
+        <v>2287.981991492896</v>
       </c>
       <c r="AD8" t="n">
-        <v>1615688.140276323</v>
+        <v>1848634.098210604</v>
       </c>
       <c r="AE8" t="n">
-        <v>2210655.792656186</v>
+        <v>2529382.729152229</v>
       </c>
       <c r="AF8" t="n">
         <v>3.678667589107223e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.55338541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1999673.90647997</v>
+        <v>2287981.991492896</v>
       </c>
     </row>
     <row r="9">
@@ -15033,28 +15033,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1586.506216878301</v>
+        <v>1809.710091724831</v>
       </c>
       <c r="AB9" t="n">
-        <v>2170.727797647413</v>
+        <v>2476.125186272423</v>
       </c>
       <c r="AC9" t="n">
-        <v>1963.556583275542</v>
+        <v>2239.807273758108</v>
       </c>
       <c r="AD9" t="n">
-        <v>1586506.216878301</v>
+        <v>1809710.091724831</v>
       </c>
       <c r="AE9" t="n">
-        <v>2170727.797647413</v>
+        <v>2476125.186272423</v>
       </c>
       <c r="AF9" t="n">
         <v>3.722170130745956e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.02604166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1963556.583275542</v>
+        <v>2239807.273758108</v>
       </c>
     </row>
     <row r="10">
@@ -15139,28 +15139,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1553.546678425297</v>
+        <v>1776.817873079532</v>
       </c>
       <c r="AB10" t="n">
-        <v>2125.631103063799</v>
+        <v>2431.120601619651</v>
       </c>
       <c r="AC10" t="n">
-        <v>1922.76385392938</v>
+        <v>2199.097863500265</v>
       </c>
       <c r="AD10" t="n">
-        <v>1553546.678425297</v>
+        <v>1776817.873079532</v>
       </c>
       <c r="AE10" t="n">
-        <v>2125631.103063799</v>
+        <v>2431120.601619651</v>
       </c>
       <c r="AF10" t="n">
         <v>3.755633624314211e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.62239583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1922763.85392938</v>
+        <v>2199097.863500265</v>
       </c>
     </row>
     <row r="11">
@@ -15245,28 +15245,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1532.921281936965</v>
+        <v>1756.090991364715</v>
       </c>
       <c r="AB11" t="n">
-        <v>2097.41052566019</v>
+        <v>2402.761167651952</v>
       </c>
       <c r="AC11" t="n">
-        <v>1897.236608825342</v>
+        <v>2173.445014107729</v>
       </c>
       <c r="AD11" t="n">
-        <v>1532921.281936965</v>
+        <v>1756090.991364715</v>
       </c>
       <c r="AE11" t="n">
-        <v>2097410.52566019</v>
+        <v>2402761.167651952</v>
       </c>
       <c r="AF11" t="n">
         <v>3.784206299591721e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.28385416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1897236.608825342</v>
+        <v>2173445.014107729</v>
       </c>
     </row>
     <row r="12">
@@ -15351,28 +15351,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1513.877963314708</v>
+        <v>1727.407074881193</v>
       </c>
       <c r="AB12" t="n">
-        <v>2071.354616989294</v>
+        <v>2363.514567674114</v>
       </c>
       <c r="AC12" t="n">
-        <v>1873.667439508299</v>
+        <v>2137.944054548825</v>
       </c>
       <c r="AD12" t="n">
-        <v>1513877.963314708</v>
+        <v>1727407.074881193</v>
       </c>
       <c r="AE12" t="n">
-        <v>2071354.616989294</v>
+        <v>2363514.567674113</v>
       </c>
       <c r="AF12" t="n">
         <v>3.80840297955646e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.00390625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1873667.439508299</v>
+        <v>2137944.054548825</v>
       </c>
     </row>
     <row r="13">
@@ -15457,28 +15457,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1489.17159051557</v>
+        <v>1712.408619751024</v>
       </c>
       <c r="AB13" t="n">
-        <v>2037.550267757272</v>
+        <v>2342.993019679875</v>
       </c>
       <c r="AC13" t="n">
-        <v>1843.089329922279</v>
+        <v>2119.381054292984</v>
       </c>
       <c r="AD13" t="n">
-        <v>1489171.59051557</v>
+        <v>1712408.619751024</v>
       </c>
       <c r="AE13" t="n">
-        <v>2037550.267757272</v>
+        <v>2342993.019679876</v>
       </c>
       <c r="AF13" t="n">
         <v>3.823847668895655e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1843089.329922279</v>
+        <v>2119381.054292984</v>
       </c>
     </row>
     <row r="14">
@@ -15563,28 +15563,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1473.995577221347</v>
+        <v>1697.232606456801</v>
       </c>
       <c r="AB14" t="n">
-        <v>2016.785776849661</v>
+        <v>2322.228528772265</v>
       </c>
       <c r="AC14" t="n">
-        <v>1824.306572883744</v>
+        <v>2100.59829725445</v>
       </c>
       <c r="AD14" t="n">
-        <v>1473995.577221347</v>
+        <v>1697232.606456801</v>
       </c>
       <c r="AE14" t="n">
-        <v>2016785.776849661</v>
+        <v>2322228.528772265</v>
       </c>
       <c r="AF14" t="n">
         <v>3.839549769723836e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.64583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1824306.572883744</v>
+        <v>2100598.29725445</v>
       </c>
     </row>
     <row r="15">
@@ -15669,28 +15669,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1459.535156361773</v>
+        <v>1673.030102509477</v>
       </c>
       <c r="AB15" t="n">
-        <v>1997.000391080848</v>
+        <v>2289.11359513242</v>
       </c>
       <c r="AC15" t="n">
-        <v>1806.409476563744</v>
+        <v>2070.64380640409</v>
       </c>
       <c r="AD15" t="n">
-        <v>1459535.156361773</v>
+        <v>1673030.102509477</v>
       </c>
       <c r="AE15" t="n">
-        <v>1997000.391080848</v>
+        <v>2289113.59513242</v>
       </c>
       <c r="AF15" t="n">
         <v>3.856796339485937e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.45052083333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1806409.476563744</v>
+        <v>2070643.80640409</v>
       </c>
     </row>
     <row r="16">
@@ -15775,28 +15775,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1445.711451369228</v>
+        <v>1659.206397516932</v>
       </c>
       <c r="AB16" t="n">
-        <v>1978.086188051225</v>
+        <v>2270.199392102797</v>
       </c>
       <c r="AC16" t="n">
-        <v>1789.300418525017</v>
+        <v>2053.534748365363</v>
       </c>
       <c r="AD16" t="n">
-        <v>1445711.451369228</v>
+        <v>1659206.397516932</v>
       </c>
       <c r="AE16" t="n">
-        <v>1978086.188051225</v>
+        <v>2270199.392102797</v>
       </c>
       <c r="AF16" t="n">
         <v>3.869152090957294e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.31380208333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1789300.418525017</v>
+        <v>2053534.748365363</v>
       </c>
     </row>
     <row r="17">
@@ -15881,28 +15881,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1435.169668824719</v>
+        <v>1648.664614972423</v>
       </c>
       <c r="AB17" t="n">
-        <v>1963.662456103205</v>
+        <v>2255.775660154776</v>
       </c>
       <c r="AC17" t="n">
-        <v>1776.253267310281</v>
+        <v>2040.487597150627</v>
       </c>
       <c r="AD17" t="n">
-        <v>1435169.668824719</v>
+        <v>1648664.614972423</v>
       </c>
       <c r="AE17" t="n">
-        <v>1963662.456103205</v>
+        <v>2255775.660154776</v>
       </c>
       <c r="AF17" t="n">
         <v>3.876102201159931e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.23567708333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1776253.267310281</v>
+        <v>2040487.597150627</v>
       </c>
     </row>
     <row r="18">
@@ -15987,28 +15987,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1420.750532295916</v>
+        <v>1634.24547844362</v>
       </c>
       <c r="AB18" t="n">
-        <v>1943.933557377089</v>
+        <v>2236.046761428661</v>
       </c>
       <c r="AC18" t="n">
-        <v>1758.407266988903</v>
+        <v>2022.641596829249</v>
       </c>
       <c r="AD18" t="n">
-        <v>1420750.532295916</v>
+        <v>1634245.47844362</v>
       </c>
       <c r="AE18" t="n">
-        <v>1943933.557377089</v>
+        <v>2236046.761428661</v>
       </c>
       <c r="AF18" t="n">
         <v>3.889230187098246e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.09244791666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1758407.266988903</v>
+        <v>2022641.596829249</v>
       </c>
     </row>
     <row r="19">
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1399.242675815755</v>
+        <v>1622.445539632428</v>
       </c>
       <c r="AB19" t="n">
-        <v>1914.505559281272</v>
+        <v>2219.901564570629</v>
       </c>
       <c r="AC19" t="n">
-        <v>1731.787835728896</v>
+        <v>2008.037274899421</v>
       </c>
       <c r="AD19" t="n">
-        <v>1399242.675815755</v>
+        <v>1622445.539632428</v>
       </c>
       <c r="AE19" t="n">
-        <v>1914505.559281272</v>
+        <v>2219901.564570629</v>
       </c>
       <c r="AF19" t="n">
         <v>3.897724766234804e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>42.99479166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1731787.835728896</v>
+        <v>2008037.274899421</v>
       </c>
     </row>
     <row r="20">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1395.064787412088</v>
+        <v>1618.267651228761</v>
       </c>
       <c r="AB20" t="n">
-        <v>1908.789188051946</v>
+        <v>2214.185193341302</v>
       </c>
       <c r="AC20" t="n">
-        <v>1726.617026946719</v>
+        <v>2002.866466117245</v>
       </c>
       <c r="AD20" t="n">
-        <v>1395064.787412087</v>
+        <v>1618267.651228761</v>
       </c>
       <c r="AE20" t="n">
-        <v>1908789.188051946</v>
+        <v>2214185.193341302</v>
       </c>
       <c r="AF20" t="n">
         <v>3.90107111559163e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>43</v>
+        <v>42.95572916666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1726617.026946719</v>
+        <v>2002866.466117245</v>
       </c>
     </row>
     <row r="21">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1397.841374878154</v>
+        <v>1621.044238694828</v>
       </c>
       <c r="AB21" t="n">
-        <v>1912.588237517413</v>
+        <v>2217.984242806769</v>
       </c>
       <c r="AC21" t="n">
-        <v>1730.053500463201</v>
+        <v>2006.302939633726</v>
       </c>
       <c r="AD21" t="n">
-        <v>1397841.374878154</v>
+        <v>1621044.238694828</v>
       </c>
       <c r="AE21" t="n">
-        <v>1912588.237517413</v>
+        <v>2217984.242806769</v>
       </c>
       <c r="AF21" t="n">
         <v>3.901328527080616e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.95572916666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1730053.500463201</v>
+        <v>2006302.939633726</v>
       </c>
     </row>
   </sheetData>
@@ -16602,28 +16602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181.56956599874</v>
+        <v>1420.4628780213</v>
       </c>
       <c r="AB2" t="n">
-        <v>1616.675607369776</v>
+        <v>1943.539976108148</v>
       </c>
       <c r="AC2" t="n">
-        <v>1462.38235642087</v>
+        <v>1758.051248563874</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181569.56599874</v>
+        <v>1420462.8780213</v>
       </c>
       <c r="AE2" t="n">
-        <v>1616675.607369776</v>
+        <v>1943539.976108148</v>
       </c>
       <c r="AF2" t="n">
         <v>5.912683590952313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.80729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1462382.35642087</v>
+        <v>1758051.248563875</v>
       </c>
     </row>
     <row r="3">
@@ -16708,28 +16708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>967.4271393382172</v>
+        <v>1178.684576463687</v>
       </c>
       <c r="AB3" t="n">
-        <v>1323.676491915742</v>
+        <v>1612.728237411163</v>
       </c>
       <c r="AC3" t="n">
-        <v>1197.346665318928</v>
+        <v>1458.811717910937</v>
       </c>
       <c r="AD3" t="n">
-        <v>967427.1393382172</v>
+        <v>1178684.576463687</v>
       </c>
       <c r="AE3" t="n">
-        <v>1323676.491915742</v>
+        <v>1612728.237411163</v>
       </c>
       <c r="AF3" t="n">
         <v>6.650038700858805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.17578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1197346.665318928</v>
+        <v>1458811.717910937</v>
       </c>
     </row>
     <row r="4">
@@ -16814,28 +16814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>953.247044124057</v>
+        <v>1173.692988582798</v>
       </c>
       <c r="AB4" t="n">
-        <v>1304.274660062079</v>
+        <v>1605.898526659215</v>
       </c>
       <c r="AC4" t="n">
-        <v>1179.796517066736</v>
+        <v>1452.633825167597</v>
       </c>
       <c r="AD4" t="n">
-        <v>953247.0441240569</v>
+        <v>1173692.988582798</v>
       </c>
       <c r="AE4" t="n">
-        <v>1304274.660062079</v>
+        <v>1605898.526659215</v>
       </c>
       <c r="AF4" t="n">
         <v>6.685106903833081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.93489583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1179796.517066736</v>
+        <v>1452633.825167597</v>
       </c>
     </row>
   </sheetData>
@@ -17111,28 +17111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3062.406294168956</v>
+        <v>3417.077228935414</v>
       </c>
       <c r="AB2" t="n">
-        <v>4190.119395512753</v>
+        <v>4675.395815437583</v>
       </c>
       <c r="AC2" t="n">
-        <v>3790.220281274365</v>
+        <v>4229.182600771283</v>
       </c>
       <c r="AD2" t="n">
-        <v>3062406.294168956</v>
+        <v>3417077.228935414</v>
       </c>
       <c r="AE2" t="n">
-        <v>4190119.395512753</v>
+        <v>4675395.815437583</v>
       </c>
       <c r="AF2" t="n">
         <v>2.554209231315349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.11197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3790220.281274365</v>
+        <v>4229182.600771283</v>
       </c>
     </row>
     <row r="3">
@@ -17217,28 +17217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1908.225232229139</v>
+        <v>2176.633327332183</v>
       </c>
       <c r="AB3" t="n">
-        <v>2610.917947691678</v>
+        <v>2978.165744741099</v>
       </c>
       <c r="AC3" t="n">
-        <v>2361.735603210338</v>
+        <v>2693.933785944883</v>
       </c>
       <c r="AD3" t="n">
-        <v>1908225.232229139</v>
+        <v>2176633.327332183</v>
       </c>
       <c r="AE3" t="n">
-        <v>2610917.947691678</v>
+        <v>2978165.744741099</v>
       </c>
       <c r="AF3" t="n">
         <v>3.465177060473973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.89322916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2361735.603210338</v>
+        <v>2693933.785944883</v>
       </c>
     </row>
     <row r="4">
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1664.721361334564</v>
+        <v>1904.330970697905</v>
       </c>
       <c r="AB4" t="n">
-        <v>2277.745208901114</v>
+        <v>2605.58964726195</v>
       </c>
       <c r="AC4" t="n">
-        <v>2060.360402999069</v>
+        <v>2356.915828295306</v>
       </c>
       <c r="AD4" t="n">
-        <v>1664721.361334564</v>
+        <v>1904330.970697905</v>
       </c>
       <c r="AE4" t="n">
-        <v>2277745.208901113</v>
+        <v>2605589.64726195</v>
       </c>
       <c r="AF4" t="n">
         <v>3.79732465057652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.1796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2060360.402999069</v>
+        <v>2356915.828295306</v>
       </c>
     </row>
     <row r="5">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1553.694395186272</v>
+        <v>1783.71556076602</v>
       </c>
       <c r="AB5" t="n">
-        <v>2125.833215652969</v>
+        <v>2440.558322216808</v>
       </c>
       <c r="AC5" t="n">
-        <v>1922.946677176707</v>
+        <v>2207.634861289554</v>
       </c>
       <c r="AD5" t="n">
-        <v>1553694.395186272</v>
+        <v>1783715.56076602</v>
       </c>
       <c r="AE5" t="n">
-        <v>2125833.215652969</v>
+        <v>2440558.322216808</v>
       </c>
       <c r="AF5" t="n">
         <v>3.966840389566679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.07682291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1922946.677176706</v>
+        <v>2207634.861289554</v>
       </c>
     </row>
     <row r="6">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1477.278403938109</v>
+        <v>1707.33272390678</v>
       </c>
       <c r="AB6" t="n">
-        <v>2021.277485191628</v>
+        <v>2336.047955053061</v>
       </c>
       <c r="AC6" t="n">
-        <v>1828.369598885706</v>
+        <v>2113.098816886693</v>
       </c>
       <c r="AD6" t="n">
-        <v>1477278.403938109</v>
+        <v>1707332.72390678</v>
       </c>
       <c r="AE6" t="n">
-        <v>2021277.485191628</v>
+        <v>2336047.955053061</v>
       </c>
       <c r="AF6" t="n">
         <v>4.07497479498003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.82682291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1828369.598885706</v>
+        <v>2113098.816886693</v>
       </c>
     </row>
     <row r="7">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1438.466442544073</v>
+        <v>1658.899164340228</v>
       </c>
       <c r="AB7" t="n">
-        <v>1968.173247349417</v>
+        <v>2269.77902211626</v>
       </c>
       <c r="AC7" t="n">
-        <v>1780.33355497089</v>
+        <v>2053.154497900349</v>
       </c>
       <c r="AD7" t="n">
-        <v>1438466.442544073</v>
+        <v>1658899.164340228</v>
       </c>
       <c r="AE7" t="n">
-        <v>1968173.247349417</v>
+        <v>2269779.02211626</v>
       </c>
       <c r="AF7" t="n">
         <v>4.146108303050351e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.0390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1780333.55497089</v>
+        <v>2053154.497900349</v>
       </c>
     </row>
     <row r="8">
@@ -17747,28 +17747,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1397.3310803592</v>
+        <v>1617.729636736574</v>
       </c>
       <c r="AB8" t="n">
-        <v>1911.890030043974</v>
+        <v>2213.449058177569</v>
       </c>
       <c r="AC8" t="n">
-        <v>1729.421928931087</v>
+        <v>2002.200586660365</v>
       </c>
       <c r="AD8" t="n">
-        <v>1397331.0803592</v>
+        <v>1617729.636736574</v>
       </c>
       <c r="AE8" t="n">
-        <v>1911890.030043974</v>
+        <v>2213449.058177568</v>
       </c>
       <c r="AF8" t="n">
         <v>4.199171605441517e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.47265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1729421.928931087</v>
+        <v>2002200.586660365</v>
       </c>
     </row>
     <row r="9">
@@ -17853,28 +17853,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1372.57267242314</v>
+        <v>1583.451115854483</v>
       </c>
       <c r="AB9" t="n">
-        <v>1878.014484041987</v>
+        <v>2166.54767364508</v>
       </c>
       <c r="AC9" t="n">
-        <v>1698.779417494902</v>
+        <v>1959.77540444115</v>
       </c>
       <c r="AD9" t="n">
-        <v>1372572.67242314</v>
+        <v>1583451.115854483</v>
       </c>
       <c r="AE9" t="n">
-        <v>1878014.484041987</v>
+        <v>2166547.67364508</v>
       </c>
       <c r="AF9" t="n">
         <v>4.238753960738712e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.05598958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1698779.417494902</v>
+        <v>1959775.40444115</v>
       </c>
     </row>
     <row r="10">
@@ -17959,28 +17959,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1340.098612882529</v>
+        <v>1560.564489067608</v>
       </c>
       <c r="AB10" t="n">
-        <v>1833.582043124128</v>
+        <v>2135.233181188564</v>
       </c>
       <c r="AC10" t="n">
-        <v>1658.58754637692</v>
+        <v>1931.449523194518</v>
       </c>
       <c r="AD10" t="n">
-        <v>1340098.612882529</v>
+        <v>1560564.489067608</v>
       </c>
       <c r="AE10" t="n">
-        <v>1833582.043124128</v>
+        <v>2135233.181188564</v>
       </c>
       <c r="AF10" t="n">
         <v>4.271452428158134e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.71744791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1658587.546376921</v>
+        <v>1931449.523194518</v>
       </c>
     </row>
     <row r="11">
@@ -18065,28 +18065,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1319.659970344097</v>
+        <v>1530.50424835666</v>
       </c>
       <c r="AB11" t="n">
-        <v>1805.616990713775</v>
+        <v>2094.10343368362</v>
       </c>
       <c r="AC11" t="n">
-        <v>1633.291439319415</v>
+        <v>1894.245141065483</v>
       </c>
       <c r="AD11" t="n">
-        <v>1319659.970344098</v>
+        <v>1530504.24835666</v>
       </c>
       <c r="AE11" t="n">
-        <v>1805616.990713775</v>
+        <v>2094103.43368362</v>
       </c>
       <c r="AF11" t="n">
         <v>4.296693350376635e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1633291.439319415</v>
+        <v>1894245.141065483</v>
       </c>
     </row>
     <row r="12">
@@ -18171,28 +18171,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1301.185712794776</v>
+        <v>1512.029990807338</v>
       </c>
       <c r="AB12" t="n">
-        <v>1780.339696508072</v>
+        <v>2068.826139477917</v>
       </c>
       <c r="AC12" t="n">
-        <v>1610.426574595798</v>
+        <v>1871.380276341867</v>
       </c>
       <c r="AD12" t="n">
-        <v>1301185.712794776</v>
+        <v>1512029.990807338</v>
       </c>
       <c r="AE12" t="n">
-        <v>1780339.696508072</v>
+        <v>2068826.139477917</v>
       </c>
       <c r="AF12" t="n">
         <v>4.317345014009954e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.25520833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1610426.574595798</v>
+        <v>1871380.276341867</v>
       </c>
     </row>
     <row r="13">
@@ -18277,28 +18277,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1284.941453836218</v>
+        <v>1495.785731848779</v>
       </c>
       <c r="AB13" t="n">
-        <v>1758.113584754845</v>
+        <v>2046.60002772469</v>
       </c>
       <c r="AC13" t="n">
-        <v>1590.321691753756</v>
+        <v>1851.275393499825</v>
       </c>
       <c r="AD13" t="n">
-        <v>1284941.453836218</v>
+        <v>1495785.731848779</v>
       </c>
       <c r="AE13" t="n">
-        <v>1758113.584754845</v>
+        <v>2046600.02772469</v>
       </c>
       <c r="AF13" t="n">
         <v>4.33340741905809e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.09244791666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1590321.691753756</v>
+        <v>1851275.393499825</v>
       </c>
     </row>
     <row r="14">
@@ -18383,28 +18383,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1282.26560602895</v>
+        <v>1493.109884041512</v>
       </c>
       <c r="AB14" t="n">
-        <v>1754.452371734868</v>
+        <v>2042.938814704713</v>
       </c>
       <c r="AC14" t="n">
-        <v>1587.009899765861</v>
+        <v>1847.96360151193</v>
       </c>
       <c r="AD14" t="n">
-        <v>1282265.60602895</v>
+        <v>1493109.884041512</v>
       </c>
       <c r="AE14" t="n">
-        <v>1754452.371734868</v>
+        <v>2042938.814704713</v>
       </c>
       <c r="AF14" t="n">
         <v>4.335702048350681e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.07291666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1587009.899765861</v>
+        <v>1847963.60151193</v>
       </c>
     </row>
     <row r="15">
@@ -18489,28 +18489,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1286.587421453957</v>
+        <v>1497.431699466519</v>
       </c>
       <c r="AB15" t="n">
-        <v>1760.365670264403</v>
+        <v>2048.852113234248</v>
       </c>
       <c r="AC15" t="n">
-        <v>1592.358841383103</v>
+        <v>1853.312543129172</v>
       </c>
       <c r="AD15" t="n">
-        <v>1286587.421453957</v>
+        <v>1497431.699466519</v>
       </c>
       <c r="AE15" t="n">
-        <v>1760365.670264403</v>
+        <v>2048852.113234248</v>
       </c>
       <c r="AF15" t="n">
         <v>4.335415219689108e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.07291666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1592358.841383103</v>
+        <v>1853312.543129172</v>
       </c>
     </row>
   </sheetData>
@@ -18786,28 +18786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3628.516586703013</v>
+        <v>4024.041478409595</v>
       </c>
       <c r="AB2" t="n">
-        <v>4964.696472781353</v>
+        <v>5505.87107894104</v>
       </c>
       <c r="AC2" t="n">
-        <v>4490.872809414176</v>
+        <v>4980.398470705291</v>
       </c>
       <c r="AD2" t="n">
-        <v>3628516.586703013</v>
+        <v>4024041.478409595</v>
       </c>
       <c r="AE2" t="n">
-        <v>4964696.472781353</v>
+        <v>5505871.07894104</v>
       </c>
       <c r="AF2" t="n">
         <v>2.225491225976623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.20572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4490872.809414176</v>
+        <v>4980398.470705291</v>
       </c>
     </row>
     <row r="3">
@@ -18892,28 +18892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2117.408277908072</v>
+        <v>2397.221569639982</v>
       </c>
       <c r="AB3" t="n">
-        <v>2897.131419294255</v>
+        <v>3279.984309533242</v>
       </c>
       <c r="AC3" t="n">
-        <v>2620.633262786295</v>
+        <v>2966.947210518156</v>
       </c>
       <c r="AD3" t="n">
-        <v>2117408.277908072</v>
+        <v>2397221.569639982</v>
       </c>
       <c r="AE3" t="n">
-        <v>2897131.419294254</v>
+        <v>3279984.309533242</v>
       </c>
       <c r="AF3" t="n">
         <v>3.1522377547501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.91796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2620633.262786295</v>
+        <v>2966947.210518156</v>
       </c>
     </row>
     <row r="4">
@@ -18998,28 +18998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1816.413690199608</v>
+        <v>2067.206390823521</v>
       </c>
       <c r="AB4" t="n">
-        <v>2485.297345447506</v>
+        <v>2828.442982634223</v>
       </c>
       <c r="AC4" t="n">
-        <v>2248.104054934727</v>
+        <v>2558.500354116271</v>
       </c>
       <c r="AD4" t="n">
-        <v>1816413.690199608</v>
+        <v>2067206.390823521</v>
       </c>
       <c r="AE4" t="n">
-        <v>2485297.345447506</v>
+        <v>2828442.982634223</v>
       </c>
       <c r="AF4" t="n">
         <v>3.494454410423391e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.44270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2248104.054934727</v>
+        <v>2558500.35411627</v>
       </c>
     </row>
     <row r="5">
@@ -19104,28 +19104,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1673.485265618556</v>
+        <v>1914.694195616742</v>
       </c>
       <c r="AB5" t="n">
-        <v>2289.73636937864</v>
+        <v>2619.76906878912</v>
       </c>
       <c r="AC5" t="n">
-        <v>2071.207143950321</v>
+        <v>2369.741985732866</v>
       </c>
       <c r="AD5" t="n">
-        <v>1673485.265618556</v>
+        <v>1914694.195616743</v>
       </c>
       <c r="AE5" t="n">
-        <v>2289736.36937864</v>
+        <v>2619769.06878912</v>
       </c>
       <c r="AF5" t="n">
         <v>3.678016825412704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.92317708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2071207.143950321</v>
+        <v>2369741.985732866</v>
       </c>
     </row>
     <row r="6">
@@ -19210,28 +19210,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600.864763179405</v>
+        <v>1832.456768162943</v>
       </c>
       <c r="AB6" t="n">
-        <v>2190.37379415094</v>
+        <v>2507.248192487588</v>
       </c>
       <c r="AC6" t="n">
-        <v>1981.327593446101</v>
+        <v>2267.959943941511</v>
       </c>
       <c r="AD6" t="n">
-        <v>1600864.763179405</v>
+        <v>1832456.768162943</v>
       </c>
       <c r="AE6" t="n">
-        <v>2190373.79415094</v>
+        <v>2507248.192487588</v>
       </c>
       <c r="AF6" t="n">
         <v>3.785771753385781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.5625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1981327.593446101</v>
+        <v>2267959.943941511</v>
       </c>
     </row>
     <row r="7">
@@ -19316,28 +19316,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1545.584957122747</v>
+        <v>1777.142796687504</v>
       </c>
       <c r="AB7" t="n">
-        <v>2114.737524731297</v>
+        <v>2431.565176434698</v>
       </c>
       <c r="AC7" t="n">
-        <v>1912.909943423698</v>
+        <v>2199.500008718928</v>
       </c>
       <c r="AD7" t="n">
-        <v>1545584.957122747</v>
+        <v>1777142.796687504</v>
       </c>
       <c r="AE7" t="n">
-        <v>2114737.524731297</v>
+        <v>2431565.176434698</v>
       </c>
       <c r="AF7" t="n">
         <v>3.863203686552364e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1912909.943423698</v>
+        <v>2199500.008718928</v>
       </c>
     </row>
     <row r="8">
@@ -19422,19 +19422,19 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1503.090621540055</v>
+        <v>1734.614295686031</v>
       </c>
       <c r="AB8" t="n">
-        <v>2056.594900069282</v>
+        <v>2373.375805139434</v>
       </c>
       <c r="AC8" t="n">
-        <v>1860.31636925574</v>
+        <v>2146.86414935079</v>
       </c>
       <c r="AD8" t="n">
-        <v>1503090.621540055</v>
+        <v>1734614.295686031</v>
       </c>
       <c r="AE8" t="n">
-        <v>2056594.900069282</v>
+        <v>2373375.805139435</v>
       </c>
       <c r="AF8" t="n">
         <v>3.917081150538904e-06</v>
@@ -19443,7 +19443,7 @@
         <v>45</v>
       </c>
       <c r="AH8" t="n">
-        <v>1860316.36925574</v>
+        <v>2146864.14935079</v>
       </c>
     </row>
     <row r="9">
@@ -19528,28 +19528,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1477.389344680869</v>
+        <v>1699.330259230977</v>
       </c>
       <c r="AB9" t="n">
-        <v>2021.429279210233</v>
+        <v>2325.098629839802</v>
       </c>
       <c r="AC9" t="n">
-        <v>1828.506905896219</v>
+        <v>2103.194479904313</v>
       </c>
       <c r="AD9" t="n">
-        <v>1477389.344680869</v>
+        <v>1699330.259230977</v>
       </c>
       <c r="AE9" t="n">
-        <v>2021429.279210233</v>
+        <v>2325098.629839802</v>
       </c>
       <c r="AF9" t="n">
         <v>3.956338599172311e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.55078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1828506.905896219</v>
+        <v>2103194.479904313</v>
       </c>
     </row>
     <row r="10">
@@ -19634,28 +19634,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1453.522357602338</v>
+        <v>1665.779027330092</v>
       </c>
       <c r="AB10" t="n">
-        <v>1988.773414552229</v>
+        <v>2279.192354177125</v>
       </c>
       <c r="AC10" t="n">
-        <v>1798.967671128382</v>
+        <v>2061.66943476102</v>
       </c>
       <c r="AD10" t="n">
-        <v>1453522.357602338</v>
+        <v>1665779.027330092</v>
       </c>
       <c r="AE10" t="n">
-        <v>1988773.414552229</v>
+        <v>2279192.354177125</v>
       </c>
       <c r="AF10" t="n">
         <v>3.991805673454907e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.15364583333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1798967.671128382</v>
+        <v>2061669.43476102</v>
       </c>
     </row>
     <row r="11">
@@ -19740,28 +19740,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1425.35216205679</v>
+        <v>1647.258911188117</v>
       </c>
       <c r="AB11" t="n">
-        <v>1950.229710225494</v>
+        <v>2253.852314221815</v>
       </c>
       <c r="AC11" t="n">
-        <v>1764.102523846161</v>
+        <v>2038.747812654075</v>
       </c>
       <c r="AD11" t="n">
-        <v>1425352.16205679</v>
+        <v>1647258.911188117</v>
       </c>
       <c r="AE11" t="n">
-        <v>1950229.710225494</v>
+        <v>2253852.314221815</v>
       </c>
       <c r="AF11" t="n">
         <v>4.015360142634951e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.89322916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1764102.523846161</v>
+        <v>2038747.812654075</v>
       </c>
     </row>
     <row r="12">
@@ -19846,28 +19846,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1405.668298842754</v>
+        <v>1627.575047974082</v>
       </c>
       <c r="AB12" t="n">
-        <v>1923.297380185294</v>
+        <v>2226.919984181615</v>
       </c>
       <c r="AC12" t="n">
-        <v>1739.740577585236</v>
+        <v>2014.385866393149</v>
       </c>
       <c r="AD12" t="n">
-        <v>1405668.298842754</v>
+        <v>1627575.047974082</v>
       </c>
       <c r="AE12" t="n">
-        <v>1923297.380185293</v>
+        <v>2226919.984181615</v>
       </c>
       <c r="AF12" t="n">
         <v>4.040268316940286e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.62630208333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1739740.577585235</v>
+        <v>2014385.866393149</v>
       </c>
     </row>
     <row r="13">
@@ -19952,28 +19952,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1389.941405118359</v>
+        <v>1602.163909427332</v>
       </c>
       <c r="AB13" t="n">
-        <v>1901.779150369992</v>
+        <v>2192.151343361641</v>
       </c>
       <c r="AC13" t="n">
-        <v>1720.276017422481</v>
+        <v>1982.935495854939</v>
       </c>
       <c r="AD13" t="n">
-        <v>1389941.405118359</v>
+        <v>1602163.909427332</v>
       </c>
       <c r="AE13" t="n">
-        <v>1901779.150369992</v>
+        <v>2192151.34336164</v>
       </c>
       <c r="AF13" t="n">
         <v>4.057595742543997e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.4375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1720276.017422481</v>
+        <v>1982935.495854939</v>
       </c>
     </row>
     <row r="14">
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1372.936813482279</v>
+        <v>1585.159317791253</v>
       </c>
       <c r="AB14" t="n">
-        <v>1878.512717903871</v>
+        <v>2168.88491089552</v>
       </c>
       <c r="AC14" t="n">
-        <v>1699.230100616283</v>
+        <v>1961.889579048742</v>
       </c>
       <c r="AD14" t="n">
-        <v>1372936.813482279</v>
+        <v>1585159.317791253</v>
       </c>
       <c r="AE14" t="n">
-        <v>1878512.717903871</v>
+        <v>2168884.910895519</v>
       </c>
       <c r="AF14" t="n">
         <v>4.075193909172766e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.25520833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1699230.100616283</v>
+        <v>1961889.579048742</v>
       </c>
     </row>
     <row r="15">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1360.368635767331</v>
+        <v>1572.591140076304</v>
       </c>
       <c r="AB15" t="n">
-        <v>1861.31638268541</v>
+        <v>2151.688575677058</v>
       </c>
       <c r="AC15" t="n">
-        <v>1683.674959495864</v>
+        <v>1946.334437928322</v>
       </c>
       <c r="AD15" t="n">
-        <v>1360368.635767331</v>
+        <v>1572591.140076304</v>
       </c>
       <c r="AE15" t="n">
-        <v>1861316.38268541</v>
+        <v>2151688.575677058</v>
       </c>
       <c r="AF15" t="n">
         <v>4.086023550175086e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.13802083333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1683674.959495864</v>
+        <v>1946334.437928322</v>
       </c>
     </row>
     <row r="16">
@@ -20270,28 +20270,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1345.009208781049</v>
+        <v>1557.231713090022</v>
       </c>
       <c r="AB16" t="n">
-        <v>1840.300937072683</v>
+        <v>2130.673130064332</v>
       </c>
       <c r="AC16" t="n">
-        <v>1664.665198517053</v>
+        <v>1927.324676949511</v>
       </c>
       <c r="AD16" t="n">
-        <v>1345009.208781049</v>
+        <v>1557231.713090022</v>
       </c>
       <c r="AE16" t="n">
-        <v>1840300.937072683</v>
+        <v>2130673.130064332</v>
       </c>
       <c r="AF16" t="n">
         <v>4.098206896302694e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.0078125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1664665.198517053</v>
+        <v>1927324.676949511</v>
       </c>
     </row>
     <row r="17">
@@ -20376,28 +20376,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1331.586698249351</v>
+        <v>1553.459281961897</v>
       </c>
       <c r="AB17" t="n">
-        <v>1821.935666003842</v>
+        <v>2125.511523366916</v>
       </c>
       <c r="AC17" t="n">
-        <v>1648.052683143202</v>
+        <v>1922.655686750936</v>
       </c>
       <c r="AD17" t="n">
-        <v>1331586.698249351</v>
+        <v>1553459.281961897</v>
       </c>
       <c r="AE17" t="n">
-        <v>1821935.666003842</v>
+        <v>2125511.523366916</v>
       </c>
       <c r="AF17" t="n">
         <v>4.101997270653506e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>43</v>
+        <v>42.96875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1648052.683143202</v>
+        <v>1922655.686750936</v>
       </c>
     </row>
     <row r="18">
@@ -20482,28 +20482,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1336.002219514708</v>
+        <v>1557.874803227254</v>
       </c>
       <c r="AB18" t="n">
-        <v>1827.977176998154</v>
+        <v>2131.553034361227</v>
       </c>
       <c r="AC18" t="n">
-        <v>1653.517600807531</v>
+        <v>1928.120604415265</v>
       </c>
       <c r="AD18" t="n">
-        <v>1336002.219514708</v>
+        <v>1557874.803227254</v>
       </c>
       <c r="AE18" t="n">
-        <v>1827977.176998154</v>
+        <v>2131553.034361227</v>
       </c>
       <c r="AF18" t="n">
         <v>4.101726529628448e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>43</v>
+        <v>42.97526041666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1653517.600807531</v>
+        <v>1928120.604415264</v>
       </c>
     </row>
   </sheetData>
@@ -20779,28 +20779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5091.361440093154</v>
+        <v>5569.603692279819</v>
       </c>
       <c r="AB2" t="n">
-        <v>6966.225337350054</v>
+        <v>7620.577485350995</v>
       </c>
       <c r="AC2" t="n">
-        <v>6301.37856831177</v>
+        <v>6893.280265696483</v>
       </c>
       <c r="AD2" t="n">
-        <v>5091361.440093154</v>
+        <v>5569603.692279819</v>
       </c>
       <c r="AE2" t="n">
-        <v>6966225.337350055</v>
+        <v>7620577.485350994</v>
       </c>
       <c r="AF2" t="n">
         <v>1.708797222822349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>94</v>
+        <v>93.76953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6301378.56831177</v>
+        <v>6893280.265696483</v>
       </c>
     </row>
     <row r="3">
@@ -20885,28 +20885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2582.859918628379</v>
+        <v>2885.37215226302</v>
       </c>
       <c r="AB3" t="n">
-        <v>3533.982888405133</v>
+        <v>3947.893472361915</v>
       </c>
       <c r="AC3" t="n">
-        <v>3196.704521511749</v>
+        <v>3571.112060262833</v>
       </c>
       <c r="AD3" t="n">
-        <v>2582859.918628379</v>
+        <v>2885372.15226302</v>
       </c>
       <c r="AE3" t="n">
-        <v>3533982.888405133</v>
+        <v>3947893.472361914</v>
       </c>
       <c r="AF3" t="n">
         <v>2.653644196524639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.38411458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3196704.521511749</v>
+        <v>3571112.060262832</v>
       </c>
     </row>
     <row r="4">
@@ -20991,28 +20991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2137.351802744489</v>
+        <v>2400.846861890828</v>
       </c>
       <c r="AB4" t="n">
-        <v>2924.419029821659</v>
+        <v>3284.944594327456</v>
       </c>
       <c r="AC4" t="n">
-        <v>2645.316582063365</v>
+        <v>2971.434092693414</v>
       </c>
       <c r="AD4" t="n">
-        <v>2137351.802744489</v>
+        <v>2400846.861890828</v>
       </c>
       <c r="AE4" t="n">
-        <v>2924419.029821659</v>
+        <v>3284944.594327456</v>
       </c>
       <c r="AF4" t="n">
         <v>3.018391061600647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.0859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2645316.582063365</v>
+        <v>2971434.092693414</v>
       </c>
     </row>
     <row r="5">
@@ -21097,28 +21097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1941.850030218969</v>
+        <v>2195.615408777461</v>
       </c>
       <c r="AB5" t="n">
-        <v>2656.924879722756</v>
+        <v>3004.137866005031</v>
       </c>
       <c r="AC5" t="n">
-        <v>2403.351698219505</v>
+        <v>2717.427164407374</v>
       </c>
       <c r="AD5" t="n">
-        <v>1941850.030218969</v>
+        <v>2195615.408777461</v>
       </c>
       <c r="AE5" t="n">
-        <v>2656924.879722756</v>
+        <v>3004137.866005031</v>
       </c>
       <c r="AF5" t="n">
         <v>3.211347567821693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.89583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2403351.698219505</v>
+        <v>2717427.164407374</v>
       </c>
     </row>
     <row r="6">
@@ -21203,28 +21203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1843.636117171745</v>
+        <v>2077.876836806549</v>
       </c>
       <c r="AB6" t="n">
-        <v>2522.5442709995</v>
+        <v>2843.042757575054</v>
       </c>
       <c r="AC6" t="n">
-        <v>2281.796186188428</v>
+        <v>2571.706747027662</v>
       </c>
       <c r="AD6" t="n">
-        <v>1843636.117171745</v>
+        <v>2077876.836806549</v>
       </c>
       <c r="AE6" t="n">
-        <v>2522544.2709995</v>
+        <v>2843042.757575054</v>
       </c>
       <c r="AF6" t="n">
         <v>3.332929856180362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.07291666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2281796.186188428</v>
+        <v>2571706.747027662</v>
       </c>
     </row>
     <row r="7">
@@ -21309,28 +21309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1768.12148499056</v>
+        <v>2012.089863153498</v>
       </c>
       <c r="AB7" t="n">
-        <v>2419.221819778755</v>
+        <v>2753.030117906507</v>
       </c>
       <c r="AC7" t="n">
-        <v>2188.334684698219</v>
+        <v>2490.284787355548</v>
       </c>
       <c r="AD7" t="n">
-        <v>1768121.48499056</v>
+        <v>2012089.863153498</v>
       </c>
       <c r="AE7" t="n">
-        <v>2419221.819778755</v>
+        <v>2753030.117906507</v>
       </c>
       <c r="AF7" t="n">
         <v>3.41291820378475e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2188334.684698219</v>
+        <v>2490284.787355548</v>
       </c>
     </row>
     <row r="8">
@@ -21415,28 +21415,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1726.864122348381</v>
+        <v>1951.342007006414</v>
       </c>
       <c r="AB8" t="n">
-        <v>2362.771676065345</v>
+        <v>2669.9122211198</v>
       </c>
       <c r="AC8" t="n">
-        <v>2137.272063472543</v>
+        <v>2415.099545981463</v>
       </c>
       <c r="AD8" t="n">
-        <v>1726864.122348381</v>
+        <v>1951342.007006414</v>
       </c>
       <c r="AE8" t="n">
-        <v>2362771.676065345</v>
+        <v>2669912.2211198</v>
       </c>
       <c r="AF8" t="n">
         <v>3.472970993986198e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>47</v>
+        <v>46.13932291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2137272.063472543</v>
+        <v>2415099.545981463</v>
       </c>
     </row>
     <row r="9">
@@ -21521,28 +21521,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1684.863866553255</v>
+        <v>1909.409071018993</v>
       </c>
       <c r="AB9" t="n">
-        <v>2305.305073165941</v>
+        <v>2612.537728151236</v>
       </c>
       <c r="AC9" t="n">
-        <v>2085.289992498974</v>
+        <v>2363.200794096213</v>
       </c>
       <c r="AD9" t="n">
-        <v>1684863.866553255</v>
+        <v>1909409.071018992</v>
       </c>
       <c r="AE9" t="n">
-        <v>2305305.073165941</v>
+        <v>2612537.728151236</v>
       </c>
       <c r="AF9" t="n">
         <v>3.518995058607799e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.53385416666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2085289.992498974</v>
+        <v>2363200.794096212</v>
       </c>
     </row>
     <row r="10">
@@ -21627,28 +21627,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1658.516737997921</v>
+        <v>1882.960457237173</v>
       </c>
       <c r="AB10" t="n">
-        <v>2269.255769523256</v>
+        <v>2576.349567944462</v>
       </c>
       <c r="AC10" t="n">
-        <v>2052.681183800431</v>
+        <v>2330.466381109171</v>
       </c>
       <c r="AD10" t="n">
-        <v>1658516.737997921</v>
+        <v>1882960.457237173</v>
       </c>
       <c r="AE10" t="n">
-        <v>2269255.769523256</v>
+        <v>2576349.567944462</v>
       </c>
       <c r="AF10" t="n">
         <v>3.556651111480019e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>46</v>
+        <v>45.05208333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>2052681.183800431</v>
+        <v>2330466.381109172</v>
       </c>
     </row>
     <row r="11">
@@ -21733,28 +21733,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1627.815786205668</v>
+        <v>1852.326825252625</v>
       </c>
       <c r="AB11" t="n">
-        <v>2227.249372850693</v>
+        <v>2534.435281202741</v>
       </c>
       <c r="AC11" t="n">
-        <v>2014.683818669951</v>
+        <v>2292.55233506701</v>
       </c>
       <c r="AD11" t="n">
-        <v>1627815.786205668</v>
+        <v>1852326.825252625</v>
       </c>
       <c r="AE11" t="n">
-        <v>2227249.372850693</v>
+        <v>2534435.281202741</v>
       </c>
       <c r="AF11" t="n">
         <v>3.583724090669196e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.70703125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2014683.818669951</v>
+        <v>2292552.33506701</v>
       </c>
     </row>
     <row r="12">
@@ -21839,28 +21839,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1611.520458427606</v>
+        <v>1835.930012248077</v>
       </c>
       <c r="AB12" t="n">
-        <v>2204.953386485624</v>
+        <v>2512.000438273582</v>
       </c>
       <c r="AC12" t="n">
-        <v>1994.51572995095</v>
+        <v>2272.25864205951</v>
       </c>
       <c r="AD12" t="n">
-        <v>1611520.458427606</v>
+        <v>1835930.012248077</v>
       </c>
       <c r="AE12" t="n">
-        <v>2204953.386485624</v>
+        <v>2512000.438273583</v>
       </c>
       <c r="AF12" t="n">
         <v>3.605628592013167e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.44010416666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1994515.72995095</v>
+        <v>2272258.64205951</v>
       </c>
     </row>
     <row r="13">
@@ -21945,28 +21945,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1593.635786683331</v>
+        <v>1808.350836364593</v>
       </c>
       <c r="AB13" t="n">
-        <v>2180.482789589075</v>
+        <v>2474.26539312243</v>
       </c>
       <c r="AC13" t="n">
-        <v>1972.38057247751</v>
+        <v>2238.124976656115</v>
       </c>
       <c r="AD13" t="n">
-        <v>1593635.786683331</v>
+        <v>1808350.836364593</v>
       </c>
       <c r="AE13" t="n">
-        <v>2180482.789589075</v>
+        <v>2474265.39312243</v>
       </c>
       <c r="AF13" t="n">
         <v>3.626794739379251e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>45</v>
+        <v>44.1796875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1972380.57247751</v>
+        <v>2238124.976656115</v>
       </c>
     </row>
     <row r="14">
@@ -22051,28 +22051,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1569.425882859476</v>
+        <v>1793.902756487652</v>
       </c>
       <c r="AB14" t="n">
-        <v>2147.357731111701</v>
+        <v>2454.496892830502</v>
       </c>
       <c r="AC14" t="n">
-        <v>1942.416923089904</v>
+        <v>2220.243154286783</v>
       </c>
       <c r="AD14" t="n">
-        <v>1569425.882859476</v>
+        <v>1793902.756487652</v>
       </c>
       <c r="AE14" t="n">
-        <v>2147357.731111702</v>
+        <v>2454496.892830502</v>
       </c>
       <c r="AF14" t="n">
         <v>3.642054054922242e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.99739583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1942416.923089904</v>
+        <v>2220243.154286783</v>
       </c>
     </row>
     <row r="15">
@@ -22157,28 +22157,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1554.61064334815</v>
+        <v>1779.087516976326</v>
       </c>
       <c r="AB15" t="n">
-        <v>2127.086866810067</v>
+        <v>2434.226028528867</v>
       </c>
       <c r="AC15" t="n">
-        <v>1924.080681626881</v>
+        <v>2201.90691282376</v>
       </c>
       <c r="AD15" t="n">
-        <v>1554610.64334815</v>
+        <v>1779087.516976326</v>
       </c>
       <c r="AE15" t="n">
-        <v>2127086.866810067</v>
+        <v>2434226.028528867</v>
       </c>
       <c r="AF15" t="n">
         <v>3.659528432398893e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.7890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1924080.681626881</v>
+        <v>2201906.91282376</v>
       </c>
     </row>
     <row r="16">
@@ -22263,28 +22263,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1542.359183868645</v>
+        <v>1766.836057496821</v>
       </c>
       <c r="AB16" t="n">
-        <v>2110.323879453962</v>
+        <v>2417.463041172762</v>
       </c>
       <c r="AC16" t="n">
-        <v>1908.917530257042</v>
+        <v>2186.743761453921</v>
       </c>
       <c r="AD16" t="n">
-        <v>1542359.183868645</v>
+        <v>1766836.057496821</v>
       </c>
       <c r="AE16" t="n">
-        <v>2110323.879453962</v>
+        <v>2417463.041172762</v>
       </c>
       <c r="AF16" t="n">
         <v>3.67109597805245e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.64583333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1908917.530257042</v>
+        <v>2186743.761453921</v>
       </c>
     </row>
     <row r="17">
@@ -22369,28 +22369,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1529.613316772596</v>
+        <v>1744.294201035077</v>
       </c>
       <c r="AB17" t="n">
-        <v>2092.884421785177</v>
+        <v>2386.620278685284</v>
       </c>
       <c r="AC17" t="n">
-        <v>1893.142469951734</v>
+        <v>2158.844588930159</v>
       </c>
       <c r="AD17" t="n">
-        <v>1529613.316772596</v>
+        <v>1744294.201035077</v>
       </c>
       <c r="AE17" t="n">
-        <v>2092884.421785177</v>
+        <v>2386620.278685284</v>
       </c>
       <c r="AF17" t="n">
         <v>3.68438634965441e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1893142.469951734</v>
+        <v>2158844.588930159</v>
       </c>
     </row>
     <row r="18">
@@ -22475,28 +22475,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1518.498744348323</v>
+        <v>1733.179628610804</v>
       </c>
       <c r="AB18" t="n">
-        <v>2077.676973453958</v>
+        <v>2371.412830354064</v>
       </c>
       <c r="AC18" t="n">
-        <v>1879.386399145458</v>
+        <v>2145.088518123883</v>
       </c>
       <c r="AD18" t="n">
-        <v>1518498.744348323</v>
+        <v>1733179.628610804</v>
       </c>
       <c r="AE18" t="n">
-        <v>2077676.973453957</v>
+        <v>2371412.830354064</v>
       </c>
       <c r="AF18" t="n">
         <v>3.691769889433277e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.40494791666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>1879386.399145458</v>
+        <v>2145088.518123883</v>
       </c>
     </row>
     <row r="19">
@@ -22581,28 +22581,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1508.395619057915</v>
+        <v>1723.076503320396</v>
       </c>
       <c r="AB19" t="n">
-        <v>2063.853431713191</v>
+        <v>2357.589288613297</v>
       </c>
       <c r="AC19" t="n">
-        <v>1866.882156826967</v>
+        <v>2132.584275805392</v>
       </c>
       <c r="AD19" t="n">
-        <v>1508395.619057915</v>
+        <v>1723076.503320396</v>
       </c>
       <c r="AE19" t="n">
-        <v>2063853.431713191</v>
+        <v>2357589.288613298</v>
       </c>
       <c r="AF19" t="n">
         <v>3.699153429212143e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.31380208333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>1866882.156826967</v>
+        <v>2132584.275805392</v>
       </c>
     </row>
     <row r="20">
@@ -22687,28 +22687,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1497.209908624037</v>
+        <v>1711.890792886519</v>
       </c>
       <c r="AB20" t="n">
-        <v>2048.548649218843</v>
+        <v>2342.28450611895</v>
       </c>
       <c r="AC20" t="n">
-        <v>1853.038041293483</v>
+        <v>2118.740160271908</v>
       </c>
       <c r="AD20" t="n">
-        <v>1497209.908624037</v>
+        <v>1711890.792886518</v>
       </c>
       <c r="AE20" t="n">
-        <v>2048548.649218843</v>
+        <v>2342284.50611895</v>
       </c>
       <c r="AF20" t="n">
         <v>3.707029204976268e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.22265625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1853038.041293483</v>
+        <v>2118740.160271908</v>
       </c>
     </row>
     <row r="21">
@@ -22793,28 +22793,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1487.48066969312</v>
+        <v>1702.161553955601</v>
       </c>
       <c r="AB21" t="n">
-        <v>2035.236675289834</v>
+        <v>2328.97253218994</v>
       </c>
       <c r="AC21" t="n">
-        <v>1840.996543472785</v>
+        <v>2106.698662451211</v>
       </c>
       <c r="AD21" t="n">
-        <v>1487480.66969312</v>
+        <v>1702161.553955601</v>
       </c>
       <c r="AE21" t="n">
-        <v>2035236.675289834</v>
+        <v>2328972.53218994</v>
       </c>
       <c r="AF21" t="n">
         <v>3.716627806688794e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>44</v>
+        <v>43.11197916666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>1840996.543472785</v>
+        <v>2106698.66245121</v>
       </c>
     </row>
     <row r="22">
@@ -22899,28 +22899,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1475.298028006593</v>
+        <v>1689.978912269074</v>
       </c>
       <c r="AB22" t="n">
-        <v>2018.567847474107</v>
+        <v>2312.303704374214</v>
       </c>
       <c r="AC22" t="n">
-        <v>1825.918565188945</v>
+        <v>2091.62068416737</v>
       </c>
       <c r="AD22" t="n">
-        <v>1475298.028006593</v>
+        <v>1689978.912269074</v>
       </c>
       <c r="AE22" t="n">
-        <v>2018567.847474107</v>
+        <v>2312303.704374214</v>
       </c>
       <c r="AF22" t="n">
         <v>3.724749700445548e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>1825918.565188946</v>
+        <v>2091620.68416737</v>
       </c>
     </row>
     <row r="23">
@@ -23005,28 +23005,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1459.141138541849</v>
+        <v>1683.583846751244</v>
       </c>
       <c r="AB23" t="n">
-        <v>1996.461278516788</v>
+        <v>2303.553693602341</v>
       </c>
       <c r="AC23" t="n">
-        <v>1805.921816146149</v>
+        <v>2083.705762142847</v>
       </c>
       <c r="AD23" t="n">
-        <v>1459141.138541849</v>
+        <v>1683583.846751244</v>
       </c>
       <c r="AE23" t="n">
-        <v>1996461.278516788</v>
+        <v>2303553.693602341</v>
       </c>
       <c r="AF23" t="n">
         <v>3.728195352342352e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.98177083333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>1805921.816146149</v>
+        <v>2083705.762142847</v>
       </c>
     </row>
     <row r="24">
@@ -23111,28 +23111,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1454.520891703567</v>
+        <v>1678.963599912962</v>
       </c>
       <c r="AB24" t="n">
-        <v>1990.139652961747</v>
+        <v>2297.232068047299</v>
       </c>
       <c r="AC24" t="n">
-        <v>1800.203517661623</v>
+        <v>2077.987463658322</v>
       </c>
       <c r="AD24" t="n">
-        <v>1454520.891703567</v>
+        <v>1678963.599912962</v>
       </c>
       <c r="AE24" t="n">
-        <v>1990139.652961747</v>
+        <v>2297232.068047299</v>
       </c>
       <c r="AF24" t="n">
         <v>3.732133240224414e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>43</v>
+        <v>42.9296875</v>
       </c>
       <c r="AH24" t="n">
-        <v>1800203.517661623</v>
+        <v>2077987.463658322</v>
       </c>
     </row>
     <row r="25">
@@ -23217,28 +23217,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1458.764884577156</v>
+        <v>1683.207592786552</v>
       </c>
       <c r="AB25" t="n">
-        <v>1995.946471243143</v>
+        <v>2303.038886328695</v>
       </c>
       <c r="AC25" t="n">
-        <v>1805.456141356164</v>
+        <v>2083.240087352862</v>
       </c>
       <c r="AD25" t="n">
-        <v>1458764.884577156</v>
+        <v>1683207.592786552</v>
       </c>
       <c r="AE25" t="n">
-        <v>1995946.471243143</v>
+        <v>2303038.886328695</v>
       </c>
       <c r="AF25" t="n">
         <v>3.731641004239156e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>43</v>
+        <v>42.93619791666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>1805456.141356164</v>
+        <v>2083240.087352862</v>
       </c>
     </row>
   </sheetData>
@@ -23514,28 +23514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2569.254988318207</v>
+        <v>2902.377627102858</v>
       </c>
       <c r="AB2" t="n">
-        <v>3515.368022547589</v>
+        <v>3971.161113266383</v>
       </c>
       <c r="AC2" t="n">
-        <v>3179.866232325522</v>
+        <v>3592.159070175718</v>
       </c>
       <c r="AD2" t="n">
-        <v>2569254.988318207</v>
+        <v>2902377.627102858</v>
       </c>
       <c r="AE2" t="n">
-        <v>3515368.022547589</v>
+        <v>3971161.113266383</v>
       </c>
       <c r="AF2" t="n">
         <v>2.953473115578574e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.63020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3179866.232325522</v>
+        <v>3592159.070175718</v>
       </c>
     </row>
     <row r="3">
@@ -23620,28 +23620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1704.522610980039</v>
+        <v>1961.487313851041</v>
       </c>
       <c r="AB3" t="n">
-        <v>2332.203034573261</v>
+        <v>2683.793477523968</v>
       </c>
       <c r="AC3" t="n">
-        <v>2109.620850221105</v>
+        <v>2427.655994756883</v>
       </c>
       <c r="AD3" t="n">
-        <v>1704522.610980039</v>
+        <v>1961487.313851041</v>
       </c>
       <c r="AE3" t="n">
-        <v>2332203.034573261</v>
+        <v>2683793.477523968</v>
       </c>
       <c r="AF3" t="n">
         <v>3.846940154074813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.92708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2109620.850221105</v>
+        <v>2427655.994756883</v>
       </c>
     </row>
     <row r="4">
@@ -23726,28 +23726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1504.245748464776</v>
+        <v>1742.170967357365</v>
       </c>
       <c r="AB4" t="n">
-        <v>2058.175395688289</v>
+        <v>2383.715176696981</v>
       </c>
       <c r="AC4" t="n">
-        <v>1861.746024591108</v>
+        <v>2156.216745798282</v>
       </c>
       <c r="AD4" t="n">
-        <v>1504245.748464776</v>
+        <v>1742170.967357365</v>
       </c>
       <c r="AE4" t="n">
-        <v>2058175.395688288</v>
+        <v>2383715.17669698</v>
       </c>
       <c r="AF4" t="n">
         <v>4.164194590134261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1861746.024591108</v>
+        <v>2156216.745798282</v>
       </c>
     </row>
     <row r="5">
@@ -23832,28 +23832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1417.410894329641</v>
+        <v>1636.297640273676</v>
       </c>
       <c r="AB5" t="n">
-        <v>1939.364117377203</v>
+        <v>2238.854619779534</v>
       </c>
       <c r="AC5" t="n">
-        <v>1754.273927929356</v>
+        <v>2025.181477119969</v>
       </c>
       <c r="AD5" t="n">
-        <v>1417410.894329641</v>
+        <v>1636297.640273676</v>
       </c>
       <c r="AE5" t="n">
-        <v>1939364.117377203</v>
+        <v>2238854.619779534</v>
       </c>
       <c r="AF5" t="n">
         <v>4.328344612660185e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.15234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1754273.927929356</v>
+        <v>2025181.477119969</v>
       </c>
     </row>
     <row r="6">
@@ -23938,28 +23938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1359.411457411747</v>
+        <v>1578.264037937001</v>
       </c>
       <c r="AB6" t="n">
-        <v>1860.006729031571</v>
+        <v>2159.450484800654</v>
       </c>
       <c r="AC6" t="n">
-        <v>1682.490297348637</v>
+        <v>1953.35556133907</v>
       </c>
       <c r="AD6" t="n">
-        <v>1359411.457411747</v>
+        <v>1578264.037937001</v>
       </c>
       <c r="AE6" t="n">
-        <v>1860006.729031571</v>
+        <v>2159450.484800654</v>
       </c>
       <c r="AF6" t="n">
         <v>4.428368738535795e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1682490.297348637</v>
+        <v>1953355.56133907</v>
       </c>
     </row>
     <row r="7">
@@ -24044,28 +24044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1312.61960738849</v>
+        <v>1531.438022494963</v>
       </c>
       <c r="AB7" t="n">
-        <v>1795.98405551902</v>
+        <v>2095.381064654855</v>
       </c>
       <c r="AC7" t="n">
-        <v>1624.577857939737</v>
+        <v>1895.40083672999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1312619.60738849</v>
+        <v>1531438.022494963</v>
       </c>
       <c r="AE7" t="n">
-        <v>1795984.05551902</v>
+        <v>2095381.064654855</v>
       </c>
       <c r="AF7" t="n">
         <v>4.501085664402418e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.38151041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1624577.857939737</v>
+        <v>1895400.83672999</v>
       </c>
     </row>
     <row r="8">
@@ -24150,28 +24150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1274.604852812255</v>
+        <v>1493.490587726432</v>
       </c>
       <c r="AB8" t="n">
-        <v>1743.970591215206</v>
+        <v>2043.459710281883</v>
       </c>
       <c r="AC8" t="n">
-        <v>1577.528485667724</v>
+        <v>1848.434783546295</v>
       </c>
       <c r="AD8" t="n">
-        <v>1274604.852812255</v>
+        <v>1493490.587726432</v>
       </c>
       <c r="AE8" t="n">
-        <v>1743970.591215206</v>
+        <v>2043459.710281883</v>
       </c>
       <c r="AF8" t="n">
         <v>4.549256792508156e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.90625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1577528.485667723</v>
+        <v>1848434.783546295</v>
       </c>
     </row>
     <row r="9">
@@ -24256,28 +24256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1249.61158915737</v>
+        <v>1459.045912919904</v>
       </c>
       <c r="AB9" t="n">
-        <v>1709.773705257621</v>
+        <v>1996.330986619785</v>
       </c>
       <c r="AC9" t="n">
-        <v>1546.595302510299</v>
+        <v>1805.80395912493</v>
       </c>
       <c r="AD9" t="n">
-        <v>1249611.58915737</v>
+        <v>1459045.912919904</v>
       </c>
       <c r="AE9" t="n">
-        <v>1709773.705257621</v>
+        <v>1996330.986619785</v>
       </c>
       <c r="AF9" t="n">
         <v>4.587302779037529e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.54166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1546595.302510299</v>
+        <v>1805803.95912493</v>
       </c>
     </row>
     <row r="10">
@@ -24362,28 +24362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1226.416715783911</v>
+        <v>1435.749554319959</v>
       </c>
       <c r="AB10" t="n">
-        <v>1678.037456222459</v>
+        <v>1964.455881020535</v>
       </c>
       <c r="AC10" t="n">
-        <v>1517.887916540949</v>
+        <v>1776.97096886708</v>
       </c>
       <c r="AD10" t="n">
-        <v>1226416.715783911</v>
+        <v>1435749.554319959</v>
       </c>
       <c r="AE10" t="n">
-        <v>1678037.456222459</v>
+        <v>1964455.881020535</v>
       </c>
       <c r="AF10" t="n">
         <v>4.617371381294614e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.26171875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1517887.916540949</v>
+        <v>1776970.96886708</v>
       </c>
     </row>
     <row r="11">
@@ -24468,28 +24468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1217.304675319259</v>
+        <v>1426.637513855307</v>
       </c>
       <c r="AB11" t="n">
-        <v>1665.569960463869</v>
+        <v>1951.988385261945</v>
       </c>
       <c r="AC11" t="n">
-        <v>1506.610301079318</v>
+        <v>1765.693353405449</v>
       </c>
       <c r="AD11" t="n">
-        <v>1217304.675319259</v>
+        <v>1426637.513855307</v>
       </c>
       <c r="AE11" t="n">
-        <v>1665569.960463869</v>
+        <v>1951988.385261945</v>
       </c>
       <c r="AF11" t="n">
         <v>4.628110167815001e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.1640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1506610.301079318</v>
+        <v>1765693.35340545</v>
       </c>
     </row>
     <row r="12">
@@ -24574,28 +24574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1221.545670958441</v>
+        <v>1430.878509494489</v>
       </c>
       <c r="AB12" t="n">
-        <v>1671.372677796921</v>
+        <v>1957.791102594996</v>
       </c>
       <c r="AC12" t="n">
-        <v>1511.859215214268</v>
+        <v>1770.942267540399</v>
       </c>
       <c r="AD12" t="n">
-        <v>1221545.670958441</v>
+        <v>1430878.509494489</v>
       </c>
       <c r="AE12" t="n">
-        <v>1671372.677796921</v>
+        <v>1957791.102594996</v>
       </c>
       <c r="AF12" t="n">
         <v>4.627496522870979e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.1640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1511859.215214268</v>
+        <v>1770942.267540399</v>
       </c>
     </row>
   </sheetData>
@@ -24871,28 +24871,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1938.268630975559</v>
+        <v>2229.561914758347</v>
       </c>
       <c r="AB2" t="n">
-        <v>2652.024651277738</v>
+        <v>3050.584973102229</v>
       </c>
       <c r="AC2" t="n">
-        <v>2398.919140699766</v>
+        <v>2759.441424792138</v>
       </c>
       <c r="AD2" t="n">
-        <v>1938268.630975559</v>
+        <v>2229561.914758347</v>
       </c>
       <c r="AE2" t="n">
-        <v>2652024.651277739</v>
+        <v>3050584.973102229</v>
       </c>
       <c r="AF2" t="n">
         <v>3.777306148965841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.13020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2398919.140699766</v>
+        <v>2759441.424792138</v>
       </c>
     </row>
     <row r="3">
@@ -24977,28 +24977,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1414.13996087044</v>
+        <v>1649.061809860126</v>
       </c>
       <c r="AB3" t="n">
-        <v>1934.888681914925</v>
+        <v>2256.319119723133</v>
       </c>
       <c r="AC3" t="n">
-        <v>1750.225621746285</v>
+        <v>2040.979189700531</v>
       </c>
       <c r="AD3" t="n">
-        <v>1414139.96087044</v>
+        <v>1649061.809860126</v>
       </c>
       <c r="AE3" t="n">
-        <v>1934888.681914925</v>
+        <v>2256319.119723133</v>
       </c>
       <c r="AF3" t="n">
         <v>4.622289569377337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.13411458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1750225.621746285</v>
+        <v>2040979.189700531</v>
       </c>
     </row>
     <row r="4">
@@ -25083,28 +25083,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1272.630994056333</v>
+        <v>1488.785141727506</v>
       </c>
       <c r="AB4" t="n">
-        <v>1741.269870584852</v>
+        <v>2037.021511476525</v>
       </c>
       <c r="AC4" t="n">
-        <v>1575.085518023845</v>
+        <v>1842.611037398852</v>
       </c>
       <c r="AD4" t="n">
-        <v>1272630.994056333</v>
+        <v>1488785.141727506</v>
       </c>
       <c r="AE4" t="n">
-        <v>1741269.870584852</v>
+        <v>2037021.511476525</v>
       </c>
       <c r="AF4" t="n">
         <v>4.921627213767537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.15234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1575085.518023846</v>
+        <v>1842611.037398852</v>
       </c>
     </row>
     <row r="5">
@@ -25189,28 +25189,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1195.753332656241</v>
+        <v>1411.940634716337</v>
       </c>
       <c r="AB5" t="n">
-        <v>1636.082462654192</v>
+        <v>1931.879466843458</v>
       </c>
       <c r="AC5" t="n">
-        <v>1479.937048674634</v>
+        <v>1747.503601937779</v>
       </c>
       <c r="AD5" t="n">
-        <v>1195753.332656241</v>
+        <v>1411940.634716337</v>
       </c>
       <c r="AE5" t="n">
-        <v>1636082.462654192</v>
+        <v>1931879.466843458</v>
       </c>
       <c r="AF5" t="n">
         <v>5.071296035962637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.78515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1479937.048674634</v>
+        <v>1747503.601937779</v>
       </c>
     </row>
     <row r="6">
@@ -25295,28 +25295,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1144.522773050556</v>
+        <v>1360.675909691871</v>
       </c>
       <c r="AB6" t="n">
-        <v>1565.986550868916</v>
+        <v>1861.736808424935</v>
       </c>
       <c r="AC6" t="n">
-        <v>1416.530992329915</v>
+        <v>1684.05526039288</v>
       </c>
       <c r="AD6" t="n">
-        <v>1144522.773050556</v>
+        <v>1360675.909691871</v>
       </c>
       <c r="AE6" t="n">
-        <v>1565986.550868916</v>
+        <v>1861736.808424935</v>
       </c>
       <c r="AF6" t="n">
         <v>5.167237588651804e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.95833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1416530.992329915</v>
+        <v>1684055.26039288</v>
       </c>
     </row>
     <row r="7">
@@ -25401,28 +25401,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1115.439945267625</v>
+        <v>1322.260479377855</v>
       </c>
       <c r="AB7" t="n">
-        <v>1526.194142852501</v>
+        <v>1809.175121900123</v>
       </c>
       <c r="AC7" t="n">
-        <v>1380.536315885591</v>
+        <v>1636.509987459206</v>
       </c>
       <c r="AD7" t="n">
-        <v>1115439.945267625</v>
+        <v>1322260.479377855</v>
       </c>
       <c r="AE7" t="n">
-        <v>1526194.142852501</v>
+        <v>1809175.121900124</v>
       </c>
       <c r="AF7" t="n">
         <v>5.217824952797001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.52864583333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1380536.315885591</v>
+        <v>1636509.987459206</v>
       </c>
     </row>
     <row r="8">
@@ -25507,28 +25507,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1118.000156138243</v>
+        <v>1324.820690248473</v>
       </c>
       <c r="AB8" t="n">
-        <v>1529.697136314212</v>
+        <v>1812.678115361834</v>
       </c>
       <c r="AC8" t="n">
-        <v>1383.704988567798</v>
+        <v>1639.678660141414</v>
       </c>
       <c r="AD8" t="n">
-        <v>1118000.156138243</v>
+        <v>1324820.690248473</v>
       </c>
       <c r="AE8" t="n">
-        <v>1529697.136314212</v>
+        <v>1812678.115361834</v>
       </c>
       <c r="AF8" t="n">
         <v>5.219220466290661e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.52213541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1383704.988567798</v>
+        <v>1639678.660141414</v>
       </c>
     </row>
   </sheetData>
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1555.699099328262</v>
+        <v>1825.402338376132</v>
       </c>
       <c r="AB2" t="n">
-        <v>2128.576140301345</v>
+        <v>2497.596010433796</v>
       </c>
       <c r="AC2" t="n">
-        <v>1925.42782094636</v>
+        <v>2259.22895259601</v>
       </c>
       <c r="AD2" t="n">
-        <v>1555699.099328262</v>
+        <v>1825402.338376132</v>
       </c>
       <c r="AE2" t="n">
-        <v>2128576.140301345</v>
+        <v>2497596.010433795</v>
       </c>
       <c r="AF2" t="n">
         <v>4.59861914507146e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1925427.82094636</v>
+        <v>2259228.95259601</v>
       </c>
     </row>
     <row r="3">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1204.580316179909</v>
+        <v>1427.822048977078</v>
       </c>
       <c r="AB3" t="n">
-        <v>1648.159930930303</v>
+        <v>1953.609118473554</v>
       </c>
       <c r="AC3" t="n">
-        <v>1490.861860329306</v>
+        <v>1767.159406114056</v>
       </c>
       <c r="AD3" t="n">
-        <v>1204580.316179909</v>
+        <v>1427822.048977078</v>
       </c>
       <c r="AE3" t="n">
-        <v>1648159.930930303</v>
+        <v>1953609.118473554</v>
       </c>
       <c r="AF3" t="n">
         <v>5.399077431974501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.24609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1490861.860329306</v>
+        <v>1767159.406114056</v>
       </c>
     </row>
     <row r="4">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091.050806300811</v>
+        <v>1314.291528068123</v>
       </c>
       <c r="AB4" t="n">
-        <v>1492.823846945233</v>
+        <v>1798.271651152829</v>
       </c>
       <c r="AC4" t="n">
-        <v>1350.350834184207</v>
+        <v>1626.647128656916</v>
       </c>
       <c r="AD4" t="n">
-        <v>1091050.806300811</v>
+        <v>1314291.528068123</v>
       </c>
       <c r="AE4" t="n">
-        <v>1492823.846945233</v>
+        <v>1798271.651152829</v>
       </c>
       <c r="AF4" t="n">
         <v>5.675691994164197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.94140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1350350.834184207</v>
+        <v>1626647.128656916</v>
       </c>
     </row>
     <row r="5">
@@ -48143,28 +48143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1036.2359225132</v>
+        <v>1250.204842281642</v>
       </c>
       <c r="AB5" t="n">
-        <v>1417.823704685025</v>
+        <v>1710.585420354729</v>
       </c>
       <c r="AC5" t="n">
-        <v>1282.508600237953</v>
+        <v>1547.32954865779</v>
       </c>
       <c r="AD5" t="n">
-        <v>1036235.9225132</v>
+        <v>1250204.842281642</v>
       </c>
       <c r="AE5" t="n">
-        <v>1417823.704685025</v>
+        <v>1710585.420354729</v>
       </c>
       <c r="AF5" t="n">
         <v>5.801853310063746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.96484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1282508.600237953</v>
+        <v>1547329.54865779</v>
       </c>
     </row>
     <row r="6">
@@ -48249,28 +48249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1039.527109254026</v>
+        <v>1253.496029022468</v>
       </c>
       <c r="AB6" t="n">
-        <v>1422.326851580734</v>
+        <v>1715.088567250438</v>
       </c>
       <c r="AC6" t="n">
-        <v>1286.581973114142</v>
+        <v>1551.402921533979</v>
       </c>
       <c r="AD6" t="n">
-        <v>1039527.109254026</v>
+        <v>1253496.029022468</v>
       </c>
       <c r="AE6" t="n">
-        <v>1422326.851580734</v>
+        <v>1715088.567250439</v>
       </c>
       <c r="AF6" t="n">
         <v>5.803028726050388e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.95833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1286581.973114142</v>
+        <v>1551402.921533979</v>
       </c>
     </row>
   </sheetData>
@@ -48546,28 +48546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>985.1765548949337</v>
+        <v>1212.983790554391</v>
       </c>
       <c r="AB2" t="n">
-        <v>1347.962025329392</v>
+        <v>1659.657935304595</v>
       </c>
       <c r="AC2" t="n">
-        <v>1219.314421508539</v>
+        <v>1501.262511303666</v>
       </c>
       <c r="AD2" t="n">
-        <v>985176.5548949337</v>
+        <v>1212983.790554391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1347962.025329392</v>
+        <v>1659657.935304595</v>
       </c>
       <c r="AF2" t="n">
         <v>6.998789865945886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1219314.421508539</v>
+        <v>1501262.511303666</v>
       </c>
     </row>
     <row r="3">
@@ -48652,28 +48652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>901.0299369656185</v>
+        <v>1119.786776980592</v>
       </c>
       <c r="AB3" t="n">
-        <v>1232.82891039172</v>
+        <v>1532.141669770863</v>
       </c>
       <c r="AC3" t="n">
-        <v>1115.169449470176</v>
+        <v>1385.916219182271</v>
       </c>
       <c r="AD3" t="n">
-        <v>901029.9369656185</v>
+        <v>1119786.776980592</v>
       </c>
       <c r="AE3" t="n">
-        <v>1232828.91039172</v>
+        <v>1532141.669770863</v>
       </c>
       <c r="AF3" t="n">
         <v>7.339764524008405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.96354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1115169.449470176</v>
+        <v>1385916.219182271</v>
       </c>
     </row>
   </sheetData>
@@ -48949,28 +48949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3339.199431601841</v>
+        <v>3714.260753453047</v>
       </c>
       <c r="AB2" t="n">
-        <v>4568.839977399846</v>
+        <v>5082.015424494419</v>
       </c>
       <c r="AC2" t="n">
-        <v>4132.796302363815</v>
+        <v>4596.995005033925</v>
       </c>
       <c r="AD2" t="n">
-        <v>3339199.431601841</v>
+        <v>3714260.753453047</v>
       </c>
       <c r="AE2" t="n">
-        <v>4568839.977399847</v>
+        <v>5082015.424494418</v>
       </c>
       <c r="AF2" t="n">
         <v>2.380439680642296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.13932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4132796.302363815</v>
+        <v>4596995.005033925</v>
       </c>
     </row>
     <row r="3">
@@ -49055,28 +49055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2012.43204475325</v>
+        <v>2291.322169071208</v>
       </c>
       <c r="AB3" t="n">
-        <v>2753.498305867275</v>
+        <v>3135.088077723215</v>
       </c>
       <c r="AC3" t="n">
-        <v>2490.708292114446</v>
+        <v>2835.879671708945</v>
       </c>
       <c r="AD3" t="n">
-        <v>2012432.04475325</v>
+        <v>2291322.169071209</v>
       </c>
       <c r="AE3" t="n">
-        <v>2753498.305867275</v>
+        <v>3135088.077723215</v>
       </c>
       <c r="AF3" t="n">
         <v>3.301047097772933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.90234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490708.292114446</v>
+        <v>2835879.671708945</v>
       </c>
     </row>
     <row r="4">
@@ -49161,28 +49161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1734.942510753944</v>
+        <v>1985.005494914029</v>
       </c>
       <c r="AB4" t="n">
-        <v>2373.82488347518</v>
+        <v>2715.97209040327</v>
       </c>
       <c r="AC4" t="n">
-        <v>2147.270368280457</v>
+        <v>2456.763525985952</v>
       </c>
       <c r="AD4" t="n">
-        <v>1734942.510753944</v>
+        <v>1985005.494914029</v>
       </c>
       <c r="AE4" t="n">
-        <v>2373824.88347518</v>
+        <v>2715972.09040327</v>
       </c>
       <c r="AF4" t="n">
         <v>3.640115689870035e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2147270.368280457</v>
+        <v>2456763.525985952</v>
       </c>
     </row>
     <row r="5">
@@ -49267,28 +49267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1613.577787183314</v>
+        <v>1844.366746570041</v>
       </c>
       <c r="AB5" t="n">
-        <v>2207.768314452122</v>
+        <v>2523.543950375343</v>
       </c>
       <c r="AC5" t="n">
-        <v>1997.062005143102</v>
+        <v>2282.700457567698</v>
       </c>
       <c r="AD5" t="n">
-        <v>1613577.787183314</v>
+        <v>1844366.746570041</v>
       </c>
       <c r="AE5" t="n">
-        <v>2207768.314452122</v>
+        <v>2523543.950375343</v>
       </c>
       <c r="AF5" t="n">
         <v>3.81660952188117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.48697916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1997062.005143102</v>
+        <v>2282700.457567698</v>
       </c>
     </row>
     <row r="6">
@@ -49373,28 +49373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1543.979627741586</v>
+        <v>1765.182317354877</v>
       </c>
       <c r="AB6" t="n">
-        <v>2112.541042249858</v>
+        <v>2415.200320952688</v>
       </c>
       <c r="AC6" t="n">
-        <v>1910.923090147505</v>
+        <v>2184.696992075904</v>
       </c>
       <c r="AD6" t="n">
-        <v>1543979.627741586</v>
+        <v>1765182.317354877</v>
       </c>
       <c r="AE6" t="n">
-        <v>2112541.042249858</v>
+        <v>2415200.320952688</v>
       </c>
       <c r="AF6" t="n">
         <v>3.92406475714347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.18489583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1910923.090147506</v>
+        <v>2184696.992075904</v>
       </c>
     </row>
     <row r="7">
@@ -49479,28 +49479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1491.050210674068</v>
+        <v>1712.218734868578</v>
       </c>
       <c r="AB7" t="n">
-        <v>2040.120678737</v>
+        <v>2342.733210806583</v>
       </c>
       <c r="AC7" t="n">
-        <v>1845.414424485696</v>
+        <v>2119.146041213914</v>
       </c>
       <c r="AD7" t="n">
-        <v>1491050.210674068</v>
+        <v>1712218.734868578</v>
       </c>
       <c r="AE7" t="n">
-        <v>2040120.678737</v>
+        <v>2342733.210806583</v>
       </c>
       <c r="AF7" t="n">
         <v>4.000619652731896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.29947916666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1845414.424485696</v>
+        <v>2119146.041213914</v>
       </c>
     </row>
     <row r="8">
@@ -49585,28 +49585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1449.555045681388</v>
+        <v>1670.790889683603</v>
       </c>
       <c r="AB8" t="n">
-        <v>1983.345163356538</v>
+        <v>2286.049805356962</v>
       </c>
       <c r="AC8" t="n">
-        <v>1794.057484608209</v>
+        <v>2067.872420424746</v>
       </c>
       <c r="AD8" t="n">
-        <v>1449555.045681389</v>
+        <v>1670790.889683603</v>
       </c>
       <c r="AE8" t="n">
-        <v>1983345.163356537</v>
+        <v>2286049.805356962</v>
       </c>
       <c r="AF8" t="n">
         <v>4.054625651801549e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.70052083333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1794057.484608209</v>
+        <v>2067872.420424746</v>
       </c>
     </row>
     <row r="9">
@@ -49691,28 +49691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1425.086230473971</v>
+        <v>1646.220589249701</v>
       </c>
       <c r="AB9" t="n">
-        <v>1949.865850901808</v>
+        <v>2252.431636338143</v>
       </c>
       <c r="AC9" t="n">
-        <v>1763.773390745649</v>
+        <v>2037.462722273687</v>
       </c>
       <c r="AD9" t="n">
-        <v>1425086.230473971</v>
+        <v>1646220.589249701</v>
       </c>
       <c r="AE9" t="n">
-        <v>1949865.850901808</v>
+        <v>2252431.636338143</v>
       </c>
       <c r="AF9" t="n">
         <v>4.093042290315014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.27734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1763773.390745649</v>
+        <v>2037462.722273687</v>
       </c>
     </row>
     <row r="10">
@@ -49797,28 +49797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1391.696288923485</v>
+        <v>1612.897967506919</v>
       </c>
       <c r="AB10" t="n">
-        <v>1904.180259812176</v>
+        <v>2206.838155179352</v>
       </c>
       <c r="AC10" t="n">
-        <v>1722.447968349481</v>
+        <v>1996.220618965838</v>
       </c>
       <c r="AD10" t="n">
-        <v>1391696.288923485</v>
+        <v>1612897.967506919</v>
       </c>
       <c r="AE10" t="n">
-        <v>1904180.259812176</v>
+        <v>2206838.155179352</v>
       </c>
       <c r="AF10" t="n">
         <v>4.126448062935418e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.91927083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1722447.968349481</v>
+        <v>1996220.618965838</v>
       </c>
     </row>
     <row r="11">
@@ -49903,28 +49903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1373.483846364095</v>
+        <v>1594.685524947529</v>
       </c>
       <c r="AB11" t="n">
-        <v>1879.261192426159</v>
+        <v>2181.919087793335</v>
       </c>
       <c r="AC11" t="n">
-        <v>1699.907141780655</v>
+        <v>1973.679792397012</v>
       </c>
       <c r="AD11" t="n">
-        <v>1373483.846364095</v>
+        <v>1594685.524947529</v>
       </c>
       <c r="AE11" t="n">
-        <v>1879261.192426159</v>
+        <v>2181919.087793335</v>
       </c>
       <c r="AF11" t="n">
         <v>4.149832103769701e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1699907.141780655</v>
+        <v>1973679.792397012</v>
       </c>
     </row>
     <row r="12">
@@ -50009,28 +50009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1354.803876787931</v>
+        <v>1566.351965790224</v>
       </c>
       <c r="AB12" t="n">
-        <v>1853.702433949956</v>
+        <v>2143.1518621659</v>
       </c>
       <c r="AC12" t="n">
-        <v>1676.787675341477</v>
+        <v>1938.612456373316</v>
       </c>
       <c r="AD12" t="n">
-        <v>1354803.876787931</v>
+        <v>1566351.965790224</v>
       </c>
       <c r="AE12" t="n">
-        <v>1853702.433949956</v>
+        <v>2143151.8621659</v>
       </c>
       <c r="AF12" t="n">
         <v>4.171824237411467e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.44401041666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1676787.675341477</v>
+        <v>1938612.456373316</v>
       </c>
     </row>
     <row r="13">
@@ -50115,28 +50115,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1338.687885621171</v>
+        <v>1550.235974623464</v>
       </c>
       <c r="AB13" t="n">
-        <v>1831.651823848243</v>
+        <v>2121.101252064187</v>
       </c>
       <c r="AC13" t="n">
-        <v>1656.841544519646</v>
+        <v>1918.666325551485</v>
       </c>
       <c r="AD13" t="n">
-        <v>1338687.885621171</v>
+        <v>1550235.974623464</v>
       </c>
       <c r="AE13" t="n">
-        <v>1831651.823848243</v>
+        <v>2121101.252064187</v>
       </c>
       <c r="AF13" t="n">
         <v>4.187413597967656e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.28125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1656841.544519646</v>
+        <v>1918666.325551485</v>
       </c>
     </row>
     <row r="14">
@@ -50221,28 +50221,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1321.873346621287</v>
+        <v>1533.42143562358</v>
       </c>
       <c r="AB14" t="n">
-        <v>1808.645429783495</v>
+        <v>2098.09485799944</v>
       </c>
       <c r="AC14" t="n">
-        <v>1636.030848414761</v>
+        <v>1897.8556294466</v>
       </c>
       <c r="AD14" t="n">
-        <v>1321873.346621287</v>
+        <v>1533421.43562358</v>
       </c>
       <c r="AE14" t="n">
-        <v>1808645.429783495</v>
+        <v>2098094.85799944</v>
       </c>
       <c r="AF14" t="n">
         <v>4.203838102839354e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.11197916666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1636030.848414761</v>
+        <v>1897855.6294466</v>
       </c>
     </row>
     <row r="15">
@@ -50327,28 +50327,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1312.084097791703</v>
+        <v>1523.632186793996</v>
       </c>
       <c r="AB15" t="n">
-        <v>1795.25134766368</v>
+        <v>2084.700775879625</v>
       </c>
       <c r="AC15" t="n">
-        <v>1623.915078693749</v>
+        <v>1885.739859725588</v>
       </c>
       <c r="AD15" t="n">
-        <v>1312084.097791703</v>
+        <v>1523632.186793996</v>
       </c>
       <c r="AE15" t="n">
-        <v>1795251.34766368</v>
+        <v>2084700.775879625</v>
       </c>
       <c r="AF15" t="n">
         <v>4.210797638801938e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.04036458333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>1623915.078693749</v>
+        <v>1885739.859725588</v>
       </c>
     </row>
     <row r="16">
@@ -50433,28 +50433,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1314.241635400339</v>
+        <v>1525.789724402632</v>
       </c>
       <c r="AB16" t="n">
-        <v>1798.203385803657</v>
+        <v>2087.652814019602</v>
       </c>
       <c r="AC16" t="n">
-        <v>1626.585378456859</v>
+        <v>1888.410159488697</v>
       </c>
       <c r="AD16" t="n">
-        <v>1314241.635400339</v>
+        <v>1525789.724402632</v>
       </c>
       <c r="AE16" t="n">
-        <v>1798203.385803657</v>
+        <v>2087652.814019602</v>
       </c>
       <c r="AF16" t="n">
         <v>4.213024690309965e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.02083333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>1626585.378456858</v>
+        <v>1888410.159488698</v>
       </c>
     </row>
   </sheetData>
@@ -50730,28 +50730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4678.697483719358</v>
+        <v>5136.168275313352</v>
       </c>
       <c r="AB2" t="n">
-        <v>6401.600306790519</v>
+        <v>7027.532026036393</v>
       </c>
       <c r="AC2" t="n">
-        <v>5790.64055821265</v>
+        <v>6356.834232674361</v>
       </c>
       <c r="AD2" t="n">
-        <v>4678697.483719358</v>
+        <v>5136168.275313352</v>
       </c>
       <c r="AE2" t="n">
-        <v>6401600.306790519</v>
+        <v>7027532.026036393</v>
       </c>
       <c r="AF2" t="n">
         <v>1.822691703984278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.85026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5790640.55821265</v>
+        <v>6356834.232674361</v>
       </c>
     </row>
     <row r="3">
@@ -50836,28 +50836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2466.653476348372</v>
+        <v>2758.641854910685</v>
       </c>
       <c r="AB3" t="n">
-        <v>3374.984107411206</v>
+        <v>3774.495488578309</v>
       </c>
       <c r="AC3" t="n">
-        <v>3052.880361019698</v>
+        <v>3414.262936685942</v>
       </c>
       <c r="AD3" t="n">
-        <v>2466653.476348372</v>
+        <v>2758641.854910685</v>
       </c>
       <c r="AE3" t="n">
-        <v>3374984.107411206</v>
+        <v>3774495.488578309</v>
       </c>
       <c r="AF3" t="n">
         <v>2.763216722090435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.26432291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3052880.361019698</v>
+        <v>3414262.936685942</v>
       </c>
     </row>
     <row r="4">
@@ -50942,28 +50942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2053.715519044726</v>
+        <v>2316.460745809381</v>
       </c>
       <c r="AB4" t="n">
-        <v>2809.984176691217</v>
+        <v>3169.483787452117</v>
       </c>
       <c r="AC4" t="n">
-        <v>2541.803230705369</v>
+        <v>2866.992703176001</v>
       </c>
       <c r="AD4" t="n">
-        <v>2053715.519044726</v>
+        <v>2316460.74580938</v>
       </c>
       <c r="AE4" t="n">
-        <v>2809984.176691217</v>
+        <v>3169483.787452117</v>
       </c>
       <c r="AF4" t="n">
         <v>3.124183130483678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2541803.230705369</v>
+        <v>2866992.703176001</v>
       </c>
     </row>
     <row r="5">
@@ -51048,28 +51048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1879.62204777555</v>
+        <v>2122.928782373063</v>
       </c>
       <c r="AB5" t="n">
-        <v>2571.781808838838</v>
+        <v>2904.684817050722</v>
       </c>
       <c r="AC5" t="n">
-        <v>2326.334562521698</v>
+        <v>2627.465774862146</v>
       </c>
       <c r="AD5" t="n">
-        <v>1879622.04777555</v>
+        <v>2122928.782373063</v>
       </c>
       <c r="AE5" t="n">
-        <v>2571781.808838838</v>
+        <v>2904684.817050722</v>
       </c>
       <c r="AF5" t="n">
         <v>3.315105432902125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2326334.562521697</v>
+        <v>2627465.774862146</v>
       </c>
     </row>
     <row r="6">
@@ -51154,28 +51154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1780.43307154091</v>
+        <v>2023.772960527346</v>
       </c>
       <c r="AB6" t="n">
-        <v>2436.067075645808</v>
+        <v>2769.015447155286</v>
       </c>
       <c r="AC6" t="n">
-        <v>2203.572252987786</v>
+        <v>2504.744499216374</v>
       </c>
       <c r="AD6" t="n">
-        <v>1780433.07154091</v>
+        <v>2023772.960527346</v>
       </c>
       <c r="AE6" t="n">
-        <v>2436067.075645809</v>
+        <v>2769015.447155287</v>
       </c>
       <c r="AF6" t="n">
         <v>3.430564374680869e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.74088541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2203572.252987786</v>
+        <v>2504744.499216374</v>
       </c>
     </row>
     <row r="7">
@@ -51260,28 +51260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1716.495366212158</v>
+        <v>1950.133091824415</v>
       </c>
       <c r="AB7" t="n">
-        <v>2348.584686482528</v>
+        <v>2668.258130034215</v>
       </c>
       <c r="AC7" t="n">
-        <v>2124.439060263945</v>
+        <v>2413.603319027555</v>
       </c>
       <c r="AD7" t="n">
-        <v>1716495.366212158</v>
+        <v>1950133.091824415</v>
       </c>
       <c r="AE7" t="n">
-        <v>2348584.686482528</v>
+        <v>2668258.130034215</v>
       </c>
       <c r="AF7" t="n">
         <v>3.511813259636282e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.63411458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2124439.060263945</v>
+        <v>2413603.319027555</v>
       </c>
     </row>
     <row r="8">
@@ -51366,28 +51366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1668.448860429235</v>
+        <v>1902.052420622712</v>
       </c>
       <c r="AB8" t="n">
-        <v>2282.845337608097</v>
+        <v>2602.472034526536</v>
       </c>
       <c r="AC8" t="n">
-        <v>2064.973782580334</v>
+        <v>2354.095756143764</v>
       </c>
       <c r="AD8" t="n">
-        <v>1668448.860429235</v>
+        <v>1902052.420622712</v>
       </c>
       <c r="AE8" t="n">
-        <v>2282845.337608097</v>
+        <v>2602472.034526536</v>
       </c>
       <c r="AF8" t="n">
         <v>3.569416958257922e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.87890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2064973.782580334</v>
+        <v>2354095.756143764</v>
       </c>
     </row>
     <row r="9">
@@ -51472,28 +51472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1636.749075102806</v>
+        <v>1860.583152114399</v>
       </c>
       <c r="AB9" t="n">
-        <v>2239.472292828649</v>
+        <v>2545.731951858455</v>
       </c>
       <c r="AC9" t="n">
-        <v>2025.740200320186</v>
+        <v>2302.770867330318</v>
       </c>
       <c r="AD9" t="n">
-        <v>1636749.075102806</v>
+        <v>1860583.152114399</v>
       </c>
       <c r="AE9" t="n">
-        <v>2239472.292828649</v>
+        <v>2545731.951858455</v>
       </c>
       <c r="AF9" t="n">
         <v>3.615952697319071e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>46</v>
+        <v>45.29296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>2025740.200320186</v>
+        <v>2302770.867330318</v>
       </c>
     </row>
     <row r="10">
@@ -51578,28 +51578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1602.585085434069</v>
+        <v>1826.486482253367</v>
       </c>
       <c r="AB10" t="n">
-        <v>2192.727614955032</v>
+        <v>2499.07938391568</v>
       </c>
       <c r="AC10" t="n">
-        <v>1983.45676889626</v>
+        <v>2260.570754994711</v>
       </c>
       <c r="AD10" t="n">
-        <v>1602585.085434069</v>
+        <v>1826486.482253367</v>
       </c>
       <c r="AE10" t="n">
-        <v>2192727.614955032</v>
+        <v>2499079.38391568</v>
       </c>
       <c r="AF10" t="n">
         <v>3.650162754142404e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.86328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1983456.76889626</v>
+        <v>2260570.754994711</v>
       </c>
     </row>
     <row r="11">
@@ -51684,28 +51684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1579.395444930525</v>
+        <v>1803.195356523338</v>
       </c>
       <c r="AB11" t="n">
-        <v>2160.998525763348</v>
+        <v>2467.211438159906</v>
       </c>
       <c r="AC11" t="n">
-        <v>1954.755859444973</v>
+        <v>2231.744241254926</v>
       </c>
       <c r="AD11" t="n">
-        <v>1579395.444930525</v>
+        <v>1803195.356523338</v>
       </c>
       <c r="AE11" t="n">
-        <v>2160998.525763348</v>
+        <v>2467211.438159906</v>
       </c>
       <c r="AF11" t="n">
         <v>3.682108910146544e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.47916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1954755.859444973</v>
+        <v>2231744.241254926</v>
       </c>
     </row>
     <row r="12">
@@ -51790,28 +51790,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1563.831666015602</v>
+        <v>1787.631577608414</v>
       </c>
       <c r="AB12" t="n">
-        <v>2139.703476826483</v>
+        <v>2445.916389223042</v>
       </c>
       <c r="AC12" t="n">
-        <v>1935.493180090854</v>
+        <v>2212.481561900807</v>
       </c>
       <c r="AD12" t="n">
-        <v>1563831.666015602</v>
+        <v>1787631.577608414</v>
       </c>
       <c r="AE12" t="n">
-        <v>2139703.476826483</v>
+        <v>2445916.389223042</v>
       </c>
       <c r="AF12" t="n">
         <v>3.701226294841936e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>45</v>
+        <v>44.24479166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1935493.180090854</v>
+        <v>2212481.561900807</v>
       </c>
     </row>
     <row r="13">
@@ -51896,28 +51896,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1536.158109547006</v>
+        <v>1760.025340947522</v>
       </c>
       <c r="AB13" t="n">
-        <v>2101.839295995003</v>
+        <v>2408.144318322403</v>
       </c>
       <c r="AC13" t="n">
-        <v>1901.242703535219</v>
+        <v>2178.314404433492</v>
       </c>
       <c r="AD13" t="n">
-        <v>1536158.109547006</v>
+        <v>1760025.340947522</v>
       </c>
       <c r="AE13" t="n">
-        <v>2101839.295995004</v>
+        <v>2408144.318322403</v>
       </c>
       <c r="AF13" t="n">
         <v>3.722104491285586e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.99739583333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1901242.703535219</v>
+        <v>2178314.404433492</v>
       </c>
     </row>
     <row r="14">
@@ -52002,28 +52002,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1522.484694846493</v>
+        <v>1746.35192624701</v>
       </c>
       <c r="AB14" t="n">
-        <v>2083.130726773279</v>
+        <v>2389.435749100679</v>
       </c>
       <c r="AC14" t="n">
-        <v>1884.319653902375</v>
+        <v>2161.391354800647</v>
       </c>
       <c r="AD14" t="n">
-        <v>1522484.694846493</v>
+        <v>1746351.92624701</v>
       </c>
       <c r="AE14" t="n">
-        <v>2083130.726773279</v>
+        <v>2389435.74910068</v>
       </c>
       <c r="AF14" t="n">
         <v>3.737197163413527e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.82161458333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>1884319.653902375</v>
+        <v>2161391.354800647</v>
       </c>
     </row>
     <row r="15">
@@ -52108,28 +52108,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1508.069601054688</v>
+        <v>1731.936832455204</v>
       </c>
       <c r="AB15" t="n">
-        <v>2063.407359498276</v>
+        <v>2369.712381825676</v>
       </c>
       <c r="AC15" t="n">
-        <v>1866.478657118178</v>
+        <v>2143.55035801645</v>
       </c>
       <c r="AD15" t="n">
-        <v>1508069.601054688</v>
+        <v>1731936.832455204</v>
       </c>
       <c r="AE15" t="n">
-        <v>2063407.359498277</v>
+        <v>2369712.381825676</v>
       </c>
       <c r="AF15" t="n">
         <v>3.753044469147864e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.63932291666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1866478.657118178</v>
+        <v>2143550.35801645</v>
       </c>
     </row>
     <row r="16">
@@ -52214,28 +52214,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1495.118757084758</v>
+        <v>1709.216505303391</v>
       </c>
       <c r="AB16" t="n">
-        <v>2045.687443427706</v>
+        <v>2338.625427866474</v>
       </c>
       <c r="AC16" t="n">
-        <v>1850.449904967325</v>
+        <v>2115.4302993123</v>
       </c>
       <c r="AD16" t="n">
-        <v>1495118.757084758</v>
+        <v>1709216.505303391</v>
       </c>
       <c r="AE16" t="n">
-        <v>2045687.443427706</v>
+        <v>2338625.427866474</v>
       </c>
       <c r="AF16" t="n">
         <v>3.766627874063011e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>44</v>
+        <v>43.4765625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1850449.904967325</v>
+        <v>2115430.2993123</v>
       </c>
     </row>
     <row r="17">
@@ -52320,28 +52320,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1481.543953115886</v>
+        <v>1695.641701334519</v>
       </c>
       <c r="AB17" t="n">
-        <v>2027.113797759411</v>
+        <v>2320.051782198178</v>
       </c>
       <c r="AC17" t="n">
-        <v>1833.648901973337</v>
+        <v>2098.629296318311</v>
       </c>
       <c r="AD17" t="n">
-        <v>1481543.953115886</v>
+        <v>1695641.701334519</v>
       </c>
       <c r="AE17" t="n">
-        <v>2027113.797759411</v>
+        <v>2320051.782198179</v>
       </c>
       <c r="AF17" t="n">
         <v>3.77945664537176e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>44</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>1833648.901973337</v>
+        <v>2098629.296318311</v>
       </c>
     </row>
     <row r="18">
@@ -52426,28 +52426,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1470.770834526701</v>
+        <v>1684.868582745335</v>
       </c>
       <c r="AB18" t="n">
-        <v>2012.37354162924</v>
+        <v>2305.311526068008</v>
       </c>
       <c r="AC18" t="n">
-        <v>1820.31543520015</v>
+        <v>2085.295829545124</v>
       </c>
       <c r="AD18" t="n">
-        <v>1470770.834526701</v>
+        <v>1684868.582745335</v>
       </c>
       <c r="AE18" t="n">
-        <v>2012373.54162924</v>
+        <v>2305311.526068008</v>
       </c>
       <c r="AF18" t="n">
         <v>3.787506070506662e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>44</v>
+        <v>43.2421875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1820315.43520015</v>
+        <v>2085295.829545124</v>
       </c>
     </row>
     <row r="19">
@@ -52532,28 +52532,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1459.808153161842</v>
+        <v>1673.905901380475</v>
       </c>
       <c r="AB19" t="n">
-        <v>1997.373917346471</v>
+        <v>2290.311901785239</v>
       </c>
       <c r="AC19" t="n">
-        <v>1806.747354006823</v>
+        <v>2071.727748351797</v>
       </c>
       <c r="AD19" t="n">
-        <v>1459808.153161842</v>
+        <v>1673905.901380475</v>
       </c>
       <c r="AE19" t="n">
-        <v>1997373.917346471</v>
+        <v>2290311.901785239</v>
       </c>
       <c r="AF19" t="n">
         <v>3.796813218318892e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>44</v>
+        <v>43.13151041666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>1806747.354006823</v>
+        <v>2071727.748351797</v>
       </c>
     </row>
     <row r="20">
@@ -52638,28 +52638,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1448.793192328804</v>
+        <v>1662.890940547437</v>
       </c>
       <c r="AB20" t="n">
-        <v>1982.302761988933</v>
+        <v>2275.2407464277</v>
       </c>
       <c r="AC20" t="n">
-        <v>1793.114568564109</v>
+        <v>2058.094962909083</v>
       </c>
       <c r="AD20" t="n">
-        <v>1448793.192328804</v>
+        <v>1662890.940547437</v>
       </c>
       <c r="AE20" t="n">
-        <v>1982302.761988933</v>
+        <v>2275240.7464277</v>
       </c>
       <c r="AF20" t="n">
         <v>3.80385646531193e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>44</v>
+        <v>43.05338541666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>1793114.568564109</v>
+        <v>2058094.962909083</v>
       </c>
     </row>
     <row r="21">
@@ -52744,28 +52744,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1425.654992703883</v>
+        <v>1649.488058685619</v>
       </c>
       <c r="AB21" t="n">
-        <v>1950.644056476792</v>
+        <v>2256.902332170945</v>
       </c>
       <c r="AC21" t="n">
-        <v>1764.477325472775</v>
+        <v>2041.506741170867</v>
       </c>
       <c r="AD21" t="n">
-        <v>1425654.992703883</v>
+        <v>1649488.058685619</v>
       </c>
       <c r="AE21" t="n">
-        <v>1950644.056476793</v>
+        <v>2256902.332170945</v>
       </c>
       <c r="AF21" t="n">
         <v>3.811905890446832e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>43</v>
+        <v>42.96223958333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>1764477.325472775</v>
+        <v>2041506.741170867</v>
       </c>
     </row>
     <row r="22">
@@ -52850,28 +52850,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1424.405271288599</v>
+        <v>1648.238337270335</v>
       </c>
       <c r="AB22" t="n">
-        <v>1948.934132502583</v>
+        <v>2255.192408196736</v>
       </c>
       <c r="AC22" t="n">
-        <v>1762.930594242771</v>
+        <v>2039.960009940863</v>
       </c>
       <c r="AD22" t="n">
-        <v>1424405.271288599</v>
+        <v>1648238.337270335</v>
       </c>
       <c r="AE22" t="n">
-        <v>1948934.132502583</v>
+        <v>2255192.408196736</v>
       </c>
       <c r="AF22" t="n">
         <v>3.810899712304969e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>43</v>
+        <v>42.97526041666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>1762930.594242771</v>
+        <v>2039960.009940863</v>
       </c>
     </row>
     <row r="23">
@@ -52956,28 +52956,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1427.776848387477</v>
+        <v>1651.609914369213</v>
       </c>
       <c r="AB23" t="n">
-        <v>1953.547273032751</v>
+        <v>2259.805548726904</v>
       </c>
       <c r="AC23" t="n">
-        <v>1767.103463115323</v>
+        <v>2044.132878813415</v>
       </c>
       <c r="AD23" t="n">
-        <v>1427776.848387477</v>
+        <v>1651609.914369213</v>
       </c>
       <c r="AE23" t="n">
-        <v>1953547.273032751</v>
+        <v>2259805.548726904</v>
       </c>
       <c r="AF23" t="n">
         <v>3.810396623234038e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>43</v>
+        <v>42.97526041666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>1767103.463115323</v>
+        <v>2044132.878813415</v>
       </c>
     </row>
   </sheetData>
@@ -53253,28 +53253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>848.8964818749255</v>
+        <v>1074.502565173088</v>
       </c>
       <c r="AB2" t="n">
-        <v>1161.497617170918</v>
+        <v>1470.181813377409</v>
       </c>
       <c r="AC2" t="n">
-        <v>1050.645914760269</v>
+        <v>1329.869724521803</v>
       </c>
       <c r="AD2" t="n">
-        <v>848896.4818749254</v>
+        <v>1074502.565173088</v>
       </c>
       <c r="AE2" t="n">
-        <v>1161497.617170918</v>
+        <v>1470181.813377409</v>
       </c>
       <c r="AF2" t="n">
         <v>8.234444563603023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.24869791666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1050645.914760269</v>
+        <v>1329869.724521803</v>
       </c>
     </row>
   </sheetData>
@@ -53550,28 +53550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2133.283395463687</v>
+        <v>2435.327196354889</v>
       </c>
       <c r="AB2" t="n">
-        <v>2918.852455494604</v>
+        <v>3332.122109106186</v>
       </c>
       <c r="AC2" t="n">
-        <v>2640.28127377735</v>
+        <v>3014.109051675717</v>
       </c>
       <c r="AD2" t="n">
-        <v>2133283.395463687</v>
+        <v>2435327.196354889</v>
       </c>
       <c r="AE2" t="n">
-        <v>2918852.455494605</v>
+        <v>3332122.109106186</v>
       </c>
       <c r="AF2" t="n">
         <v>3.46530710373051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>2640281.27377735</v>
+        <v>3014109.051675717</v>
       </c>
     </row>
     <row r="3">
@@ -53656,28 +53656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1513.928532373792</v>
+        <v>1749.938909078951</v>
       </c>
       <c r="AB3" t="n">
-        <v>2071.423807806882</v>
+        <v>2394.343617257856</v>
       </c>
       <c r="AC3" t="n">
-        <v>1873.730026851367</v>
+        <v>2165.830822909138</v>
       </c>
       <c r="AD3" t="n">
-        <v>1513928.532373792</v>
+        <v>1749938.909078951</v>
       </c>
       <c r="AE3" t="n">
-        <v>2071423.807806883</v>
+        <v>2394343.617257856</v>
       </c>
       <c r="AF3" t="n">
         <v>4.32830697192146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.04557291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1873730.026851367</v>
+        <v>2165830.822909138</v>
       </c>
     </row>
     <row r="4">
@@ -53762,28 +53762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1347.028831779249</v>
+        <v>1573.629255012817</v>
       </c>
       <c r="AB4" t="n">
-        <v>1843.0642743583</v>
+        <v>2153.108970331594</v>
       </c>
       <c r="AC4" t="n">
-        <v>1667.164806770498</v>
+        <v>1947.619272110565</v>
       </c>
       <c r="AD4" t="n">
-        <v>1347028.831779249</v>
+        <v>1573629.255012817</v>
       </c>
       <c r="AE4" t="n">
-        <v>1843064.2743583</v>
+        <v>2153108.970331594</v>
       </c>
       <c r="AF4" t="n">
         <v>4.636711319574896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.71223958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1667164.806770498</v>
+        <v>1947619.272110565</v>
       </c>
     </row>
     <row r="5">
@@ -53868,28 +53868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1274.83157032785</v>
+        <v>1491.921565893199</v>
       </c>
       <c r="AB5" t="n">
-        <v>1744.280796122114</v>
+        <v>2041.312905389295</v>
       </c>
       <c r="AC5" t="n">
-        <v>1577.809085053692</v>
+        <v>1846.492866699596</v>
       </c>
       <c r="AD5" t="n">
-        <v>1274831.57032785</v>
+        <v>1491921.565893199</v>
       </c>
       <c r="AE5" t="n">
-        <v>1744280.796122114</v>
+        <v>2041312.905389295</v>
       </c>
       <c r="AF5" t="n">
         <v>4.789083694143691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.22786458333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1577809.085053692</v>
+        <v>1846492.866699596</v>
       </c>
     </row>
     <row r="6">
@@ -53974,28 +53974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1222.164525940143</v>
+        <v>1439.220356086711</v>
       </c>
       <c r="AB6" t="n">
-        <v>1672.21942248484</v>
+        <v>1969.204785118772</v>
       </c>
       <c r="AC6" t="n">
-        <v>1512.625147777586</v>
+        <v>1781.26664422331</v>
       </c>
       <c r="AD6" t="n">
-        <v>1222164.525940143</v>
+        <v>1439220.35608671</v>
       </c>
       <c r="AE6" t="n">
-        <v>1672219.42248484</v>
+        <v>1969204.785118772</v>
       </c>
       <c r="AF6" t="n">
         <v>4.884233255555647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.34895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1512625.147777586</v>
+        <v>1781266.64422331</v>
       </c>
     </row>
     <row r="7">
@@ -54080,28 +54080,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1180.615175686957</v>
+        <v>1397.73832564123</v>
       </c>
       <c r="AB7" t="n">
-        <v>1615.369768440467</v>
+        <v>1912.447241005241</v>
       </c>
       <c r="AC7" t="n">
-        <v>1461.201144926218</v>
+        <v>1729.925960460261</v>
       </c>
       <c r="AD7" t="n">
-        <v>1180615.175686957</v>
+        <v>1397738.32564123</v>
       </c>
       <c r="AE7" t="n">
-        <v>1615369.768440467</v>
+        <v>1912447.241005241</v>
       </c>
       <c r="AF7" t="n">
         <v>4.945448358002498e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.79557291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1461201.144926218</v>
+        <v>1729925.960460261</v>
       </c>
     </row>
     <row r="8">
@@ -54186,28 +54186,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1152.012184969383</v>
+        <v>1359.659072674217</v>
       </c>
       <c r="AB8" t="n">
-        <v>1576.23389466579</v>
+        <v>1860.345527157698</v>
       </c>
       <c r="AC8" t="n">
-        <v>1425.800344017052</v>
+        <v>1682.796761057112</v>
       </c>
       <c r="AD8" t="n">
-        <v>1152012.184969383</v>
+        <v>1359659.072674217</v>
       </c>
       <c r="AE8" t="n">
-        <v>1576233.89466579</v>
+        <v>1860345.527157698</v>
       </c>
       <c r="AF8" t="n">
         <v>4.99402121103098e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.37239583333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1425800.344017052</v>
+        <v>1682796.761057112</v>
       </c>
     </row>
     <row r="9">
@@ -54292,28 +54292,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1152.569438730428</v>
+        <v>1360.216326435263</v>
       </c>
       <c r="AB9" t="n">
-        <v>1576.996353845953</v>
+        <v>1861.107986337861</v>
       </c>
       <c r="AC9" t="n">
-        <v>1426.490035163179</v>
+        <v>1683.486452203239</v>
       </c>
       <c r="AD9" t="n">
-        <v>1152569.438730428</v>
+        <v>1360216.326435263</v>
       </c>
       <c r="AE9" t="n">
-        <v>1576996.353845953</v>
+        <v>1861107.986337861</v>
       </c>
       <c r="AF9" t="n">
         <v>4.995351974127651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1426490.035163179</v>
+        <v>1683486.452203239</v>
       </c>
     </row>
   </sheetData>
@@ -54589,28 +54589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2805.248091417543</v>
+        <v>3149.090566940676</v>
       </c>
       <c r="AB2" t="n">
-        <v>3838.264197489037</v>
+        <v>4308.724641759242</v>
       </c>
       <c r="AC2" t="n">
-        <v>3471.945649518173</v>
+        <v>3897.506009282592</v>
       </c>
       <c r="AD2" t="n">
-        <v>2805248.091417544</v>
+        <v>3149090.566940676</v>
       </c>
       <c r="AE2" t="n">
-        <v>3838264.197489037</v>
+        <v>4308724.641759242</v>
       </c>
       <c r="AF2" t="n">
         <v>2.745260940833974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.25390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3471945.649518173</v>
+        <v>3897506.009282593</v>
       </c>
     </row>
     <row r="3">
@@ -54695,28 +54695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1806.834509708097</v>
+        <v>2074.270556027175</v>
       </c>
       <c r="AB3" t="n">
-        <v>2472.190688095402</v>
+        <v>2838.108485114836</v>
       </c>
       <c r="AC3" t="n">
-        <v>2236.248278564999</v>
+        <v>2567.243394605752</v>
       </c>
       <c r="AD3" t="n">
-        <v>1806834.509708097</v>
+        <v>2074270.556027175</v>
       </c>
       <c r="AE3" t="n">
-        <v>2472190.688095402</v>
+        <v>2838108.485114836</v>
       </c>
       <c r="AF3" t="n">
         <v>3.644350932787262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.92317708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2236248.278564998</v>
+        <v>2567243.394605752</v>
       </c>
     </row>
     <row r="4">
@@ -54801,28 +54801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1584.804683947114</v>
+        <v>1823.644217256388</v>
       </c>
       <c r="AB4" t="n">
-        <v>2168.399685224628</v>
+        <v>2495.190471554931</v>
       </c>
       <c r="AC4" t="n">
-        <v>1961.450662634861</v>
+        <v>2257.05299497155</v>
       </c>
       <c r="AD4" t="n">
-        <v>1584804.683947114</v>
+        <v>1823644.217256388</v>
       </c>
       <c r="AE4" t="n">
-        <v>2168399.685224628</v>
+        <v>2495190.471554931</v>
       </c>
       <c r="AF4" t="n">
         <v>3.970215509771979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.58072916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1961450.662634861</v>
+        <v>2257052.99497155</v>
       </c>
     </row>
     <row r="5">
@@ -54907,28 +54907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1481.619274110667</v>
+        <v>1710.903859470819</v>
       </c>
       <c r="AB5" t="n">
-        <v>2027.216855267398</v>
+        <v>2340.934140279161</v>
       </c>
       <c r="AC5" t="n">
-        <v>1833.742123817403</v>
+        <v>2117.518671452618</v>
       </c>
       <c r="AD5" t="n">
-        <v>1481619.274110667</v>
+        <v>1710903.859470819</v>
       </c>
       <c r="AE5" t="n">
-        <v>2027216.855267398</v>
+        <v>2340934.140279161</v>
       </c>
       <c r="AF5" t="n">
         <v>4.136702684558716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.62109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1833742.123817403</v>
+        <v>2117518.671452618</v>
       </c>
     </row>
     <row r="6">
@@ -55013,28 +55013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1417.715772028372</v>
+        <v>1637.378089631697</v>
       </c>
       <c r="AB6" t="n">
-        <v>1939.781264494861</v>
+        <v>2240.332938257239</v>
       </c>
       <c r="AC6" t="n">
-        <v>1754.651263111575</v>
+        <v>2026.518706956995</v>
       </c>
       <c r="AD6" t="n">
-        <v>1417715.772028372</v>
+        <v>1637378.089631697</v>
       </c>
       <c r="AE6" t="n">
-        <v>1939781.264494861</v>
+        <v>2240332.938257239</v>
       </c>
       <c r="AF6" t="n">
         <v>4.245719197586331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.42317708333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1754651.263111575</v>
+        <v>2026518.706956995</v>
       </c>
     </row>
     <row r="7">
@@ -55119,28 +55119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1370.980354906495</v>
+        <v>1590.709992317525</v>
       </c>
       <c r="AB7" t="n">
-        <v>1875.835804967622</v>
+        <v>2176.479588660842</v>
       </c>
       <c r="AC7" t="n">
-        <v>1696.808668493599</v>
+        <v>1968.759431427339</v>
       </c>
       <c r="AD7" t="n">
-        <v>1370980.354906495</v>
+        <v>1590709.992317525</v>
       </c>
       <c r="AE7" t="n">
-        <v>1875835.804967622</v>
+        <v>2176479.588660842</v>
       </c>
       <c r="AF7" t="n">
         <v>4.315039480326715e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.69401041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1696808.668493599</v>
+        <v>1968759.431427339</v>
       </c>
     </row>
     <row r="8">
@@ -55225,28 +55225,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1342.74711605315</v>
+        <v>1552.888651126133</v>
       </c>
       <c r="AB8" t="n">
-        <v>1837.205842005884</v>
+        <v>2124.730761082968</v>
       </c>
       <c r="AC8" t="n">
-        <v>1661.865494979436</v>
+        <v>1921.949439323562</v>
       </c>
       <c r="AD8" t="n">
-        <v>1342747.11605315</v>
+        <v>1552888.651126134</v>
       </c>
       <c r="AE8" t="n">
-        <v>1837205.842005884</v>
+        <v>2124730.761082968</v>
       </c>
       <c r="AF8" t="n">
         <v>4.36332668582536e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.20572916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1661865.494979436</v>
+        <v>1921949.439323562</v>
       </c>
     </row>
     <row r="9">
@@ -55331,28 +55331,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1307.389742808593</v>
+        <v>1527.085214800842</v>
       </c>
       <c r="AB9" t="n">
-        <v>1788.828324075464</v>
+        <v>2089.425361135436</v>
       </c>
       <c r="AC9" t="n">
-        <v>1618.105059462022</v>
+        <v>1890.013537195582</v>
       </c>
       <c r="AD9" t="n">
-        <v>1307389.742808593</v>
+        <v>1527085.214800842</v>
       </c>
       <c r="AE9" t="n">
-        <v>1788828.324075464</v>
+        <v>2089425.361135436</v>
       </c>
       <c r="AF9" t="n">
         <v>4.403615397161652e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.79557291666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1618105.059462022</v>
+        <v>1890013.537195582</v>
       </c>
     </row>
     <row r="10">
@@ -55437,28 +55437,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1285.806292009297</v>
+        <v>1496.015146889986</v>
       </c>
       <c r="AB10" t="n">
-        <v>1759.29689449722</v>
+        <v>2046.913923505146</v>
       </c>
       <c r="AC10" t="n">
-        <v>1591.392068075105</v>
+        <v>1851.559331507549</v>
       </c>
       <c r="AD10" t="n">
-        <v>1285806.292009297</v>
+        <v>1496015.146889986</v>
       </c>
       <c r="AE10" t="n">
-        <v>1759296.89449722</v>
+        <v>2046913.923505146</v>
       </c>
       <c r="AF10" t="n">
         <v>4.432350728041213e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.50911458333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1591392.068075105</v>
+        <v>1851559.331507549</v>
       </c>
     </row>
     <row r="11">
@@ -55543,28 +55543,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1264.934647123875</v>
+        <v>1475.042016778078</v>
       </c>
       <c r="AB11" t="n">
-        <v>1730.739389172999</v>
+        <v>2018.217561616836</v>
       </c>
       <c r="AC11" t="n">
-        <v>1565.560050978317</v>
+        <v>1825.601710122263</v>
       </c>
       <c r="AD11" t="n">
-        <v>1264934.647123875</v>
+        <v>1475042.016778078</v>
       </c>
       <c r="AE11" t="n">
-        <v>1730739.389172999</v>
+        <v>2018217.561616836</v>
       </c>
       <c r="AF11" t="n">
         <v>4.459308615773586e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.24869791666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1565560.050978317</v>
+        <v>1825601.710122263</v>
       </c>
     </row>
     <row r="12">
@@ -55649,28 +55649,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1250.778147503786</v>
+        <v>1460.885517157989</v>
       </c>
       <c r="AB12" t="n">
-        <v>1711.369841852109</v>
+        <v>1998.848014295945</v>
       </c>
       <c r="AC12" t="n">
-        <v>1548.039106068401</v>
+        <v>1808.080765212347</v>
       </c>
       <c r="AD12" t="n">
-        <v>1250778.147503786</v>
+        <v>1460885.517157989</v>
       </c>
       <c r="AE12" t="n">
-        <v>1711369.841852109</v>
+        <v>1998848.014295945</v>
       </c>
       <c r="AF12" t="n">
         <v>4.473824401475633e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.11197916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1548039.106068401</v>
+        <v>1808080.765212347</v>
       </c>
     </row>
     <row r="13">
@@ -55755,28 +55755,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1252.59201032661</v>
+        <v>1462.699379980813</v>
       </c>
       <c r="AB13" t="n">
-        <v>1713.851648988276</v>
+        <v>2001.329821432112</v>
       </c>
       <c r="AC13" t="n">
-        <v>1550.28405301473</v>
+        <v>1810.325712158676</v>
       </c>
       <c r="AD13" t="n">
-        <v>1252592.01032661</v>
+        <v>1462699.379980813</v>
       </c>
       <c r="AE13" t="n">
-        <v>1713851.648988276</v>
+        <v>2001329.821432112</v>
       </c>
       <c r="AF13" t="n">
         <v>4.47145447727938e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.13151041666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1550284.053014731</v>
+        <v>1810325.712158676</v>
       </c>
     </row>
   </sheetData>
